--- a/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earzm\Documents\Github\IEATools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AD003-B17E-3E42-9259-EAD583614368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="26640" windowHeight="28335" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26640" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FU etas" sheetId="1" r:id="rId1"/>
@@ -236,11 +237,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#####"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -253,19 +254,25 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF8C87A0"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -312,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -322,6 +329,8 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,29 +712,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J240" sqref="J240"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J304" sqref="J304:J305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -795,7 +804,7 @@
         <v>619.25099999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -830,7 +839,7 @@
         <v>0.115638763126426</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -863,7 +872,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -896,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -931,7 +940,7 @@
         <v>187.70779999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -966,7 +975,7 @@
         <v>3.5052503461734399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>187.70779999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>3.5052503461734399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>187.01634999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>3.4923382277006802E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>70.325800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>1.3132620743246899E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>63.162799999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>1.17950040736338E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>25.8551</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>4.8281743340100299E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>19.075665000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>3.5621844880574199E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>158.903695</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1927,7 @@
         <v>2.96736327369981E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>26.423500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>4.9343171952424903E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +2096,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -2153,7 +2162,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2195,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2226,7 @@
       </c>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2248,7 +2257,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>685.27279999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>0.127967656081593</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2360,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>216.6498</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>4.0457124661223802E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2564,7 @@
         <v>148.09976</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>2.7656108856861698E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>19.075665000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>3.5621844880574199E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>4.5190000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +2867,7 @@
         <v>8.43876829538132E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
@@ -2953,7 +2962,7 @@
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
@@ -2986,7 +2995,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3026,7 @@
       </c>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -3048,7 +3057,7 @@
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
@@ -3083,7 +3092,7 @@
         <v>2111.7321999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>0.39434429603221599</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -3151,7 +3160,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>515.68740000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>9.6299324661376903E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>53.353400000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>9.96319938859919E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +3500,7 @@
         <v>36.151699999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>6.7509586143867399E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
@@ -3627,7 +3636,7 @@
         <v>19.075665000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>3.5621844880574199E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -3728,7 +3737,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>5.5890000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
@@ -3794,7 +3803,7 @@
         <v>1.0305607070785999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
@@ -3820,12 +3829,12 @@
         <v>20</v>
       </c>
       <c r="I92" s="5"/>
-      <c r="J92" s="6"/>
+      <c r="J92" s="9"/>
       <c r="K92" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -3851,12 +3860,12 @@
         <v>21</v>
       </c>
       <c r="I93" s="7"/>
-      <c r="J93" s="8"/>
+      <c r="J93" s="10"/>
       <c r="K93" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>11</v>
       </c>
@@ -3891,7 +3900,7 @@
         <v>31.0977</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>5.7341327071959401E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -3959,7 +3968,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>31.527699999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -4058,7 +4067,7 @@
         <v>5.8134207916553798E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -4084,12 +4093,12 @@
         <v>20</v>
       </c>
       <c r="I100" s="5"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="9"/>
       <c r="K100" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -4115,12 +4124,12 @@
         <v>21</v>
       </c>
       <c r="I101" s="7"/>
-      <c r="J101" s="8"/>
+      <c r="J101" s="10"/>
       <c r="K101" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>47</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>192.65129999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>47</v>
       </c>
@@ -4190,7 +4199,7 @@
         <v>3.6707358761916302E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>47</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>47</v>
       </c>
@@ -4256,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>47</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>5168.6931100000002</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>47</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>9.8483151849489303E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>47</v>
       </c>
@@ -4359,7 +4368,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>47</v>
       </c>
@@ -4392,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
@@ -4427,7 +4436,7 @@
         <v>4109.3926000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
@@ -4462,7 +4471,7 @@
         <v>7.8299470837603594E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>47</v>
       </c>
@@ -4495,7 +4504,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>47</v>
       </c>
@@ -4528,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>47</v>
       </c>
@@ -4563,7 +4572,7 @@
         <v>4029.2543000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>47</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>7.6772533137899501E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>47</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>47</v>
       </c>
@@ -4664,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>47</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>2496.8186000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>47</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>4.75738373494628E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>47</v>
       </c>
@@ -4767,7 +4776,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>47</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>1673.8107</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>47</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>3.1892424221603703E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>47</v>
       </c>
@@ -4903,7 +4912,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>47</v>
       </c>
@@ -4936,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>47</v>
       </c>
@@ -4971,7 +4980,7 @@
         <v>1672.8117</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>47</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>3.1873389493364997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>47</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>47</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>47</v>
       </c>
@@ -5107,7 +5116,7 @@
         <v>739.81083000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>47</v>
       </c>
@@ -5142,7 +5151,7 @@
         <v>1.40961942913238E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>47</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>47</v>
       </c>
@@ -5208,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>47</v>
       </c>
@@ -5243,7 +5252,7 @@
         <v>614.11339999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>47</v>
       </c>
@@ -5278,7 +5287,7 @@
         <v>1.170118285955E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>47</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>47</v>
       </c>
@@ -5344,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>47</v>
       </c>
@@ -5377,7 +5386,7 @@
         <v>518.56809999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>47</v>
       </c>
@@ -5410,7 +5419,7 @@
         <v>9.8806835402539799E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>47</v>
       </c>
@@ -5441,7 +5450,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>47</v>
       </c>
@@ -5472,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>47</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>162.08090000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
@@ -5542,7 +5551,7 @@
         <v>3.0882541383080702E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -5575,7 +5584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>47</v>
       </c>
@@ -5608,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>47</v>
       </c>
@@ -5641,7 +5650,7 @@
         <v>102.61539999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>47</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>1.9552114635601001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>47</v>
       </c>
@@ -5705,7 +5714,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>47</v>
       </c>
@@ -5736,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>47</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>33.663899999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>47</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>6.41424612564398E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>47</v>
       </c>
@@ -5833,7 +5842,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>47</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>47</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>6263.6178600000003</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>47</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>0.11934560936498601</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>47</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>47</v>
       </c>
@@ -6000,7 +6009,7 @@
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>47</v>
       </c>
@@ -6033,7 +6042,7 @@
         <v>149.78620000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>47</v>
       </c>
@@ -6066,7 +6075,7 @@
         <v>2.8539936044989899E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>47</v>
       </c>
@@ -6097,7 +6106,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>47</v>
       </c>
@@ -6128,7 +6137,7 @@
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>47</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>115.44604</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>47</v>
       </c>
@@ -6198,7 +6207,7 @@
         <v>2.1996836813053099E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>47</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>47</v>
       </c>
@@ -6264,7 +6273,7 @@
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>47</v>
       </c>
@@ -6299,7 +6308,7 @@
         <v>4612.0276000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>47</v>
       </c>
@@ -6334,7 +6343,7 @@
         <v>8.7876568563544602E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>47</v>
       </c>
@@ -6367,7 +6376,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>47</v>
       </c>
@@ -6400,7 +6409,7 @@
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>47</v>
       </c>
@@ -6435,7 +6444,7 @@
         <v>1683.98972</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>47</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>3.2086373049867299E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>47</v>
       </c>
@@ -6503,7 +6512,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>47</v>
       </c>
@@ -6536,7 +6545,7 @@
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>47</v>
       </c>
@@ -6569,7 +6578,7 @@
         <v>1052.3454999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>47</v>
       </c>
@@ -6602,7 +6611,7 @@
         <v>2.0051161767394399E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>47</v>
       </c>
@@ -6633,7 +6642,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>47</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>47</v>
       </c>
@@ -6697,7 +6706,7 @@
       </c>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>47</v>
       </c>
@@ -6730,7 +6739,7 @@
       </c>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>47</v>
       </c>
@@ -6761,7 +6770,7 @@
       </c>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>47</v>
       </c>
@@ -6792,7 +6801,7 @@
       </c>
       <c r="K181" s="8"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>47</v>
       </c>
@@ -6827,7 +6836,7 @@
         <v>170.63630000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>47</v>
       </c>
@@ -6862,7 +6871,7 @@
         <v>3.25126686500739E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>47</v>
       </c>
@@ -6895,7 +6904,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>47</v>
       </c>
@@ -6928,7 +6937,7 @@
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>47</v>
       </c>
@@ -6963,7 +6972,7 @@
         <v>3459.1066999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>47</v>
       </c>
@@ -6998,7 +7007,7 @@
         <v>6.5909065047912205E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>47</v>
       </c>
@@ -7031,7 +7040,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>47</v>
       </c>
@@ -7064,7 +7073,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>47</v>
       </c>
@@ -7099,7 +7108,7 @@
         <v>1508.4313</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>47</v>
       </c>
@@ -7134,7 +7143,7 @@
         <v>2.87413211833005E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>47</v>
       </c>
@@ -7167,7 +7176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>47</v>
       </c>
@@ -7200,7 +7209,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>47</v>
       </c>
@@ -7235,7 +7244,7 @@
         <v>1233.0180499999999</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>47</v>
       </c>
@@ -7270,7 +7279,7 @@
         <v>2.3493657152206301E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>47</v>
       </c>
@@ -7303,7 +7312,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>47</v>
       </c>
@@ -7336,7 +7345,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>47</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>5.165</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>47</v>
       </c>
@@ -7406,7 +7415,7 @@
         <v>9.8412784136571002E-5</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>47</v>
       </c>
@@ -7439,7 +7448,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>47</v>
       </c>
@@ -7472,7 +7481,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>47</v>
       </c>
@@ -7505,7 +7514,7 @@
       </c>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>47</v>
       </c>
@@ -7538,7 +7547,7 @@
       </c>
       <c r="K203" s="3"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>47</v>
       </c>
@@ -7569,7 +7578,7 @@
       </c>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>47</v>
       </c>
@@ -7600,7 +7609,7 @@
       </c>
       <c r="K205" s="8"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>47</v>
       </c>
@@ -7635,7 +7644,7 @@
         <v>574.6345</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>47</v>
       </c>
@@ -7670,7 +7679,7 @@
         <v>1.09489605045356E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>47</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>47</v>
       </c>
@@ -7736,7 +7745,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>47</v>
       </c>
@@ -7771,7 +7780,7 @@
         <v>477.73973000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>47</v>
       </c>
@@ -7806,7 +7815,7 @@
         <v>9.1027486780162099E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>47</v>
       </c>
@@ -7839,7 +7848,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>47</v>
       </c>
@@ -7872,7 +7881,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>47</v>
       </c>
@@ -7907,7 +7916,7 @@
         <v>2.6808000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>47</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>5.1079378840913802E-5</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>47</v>
       </c>
@@ -7975,7 +7984,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>47</v>
       </c>
@@ -8008,7 +8017,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>47</v>
       </c>
@@ -8041,7 +8050,7 @@
       </c>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>47</v>
       </c>
@@ -8074,7 +8083,7 @@
       </c>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>47</v>
       </c>
@@ -8105,7 +8114,7 @@
       </c>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>47</v>
       </c>
@@ -8136,7 +8145,7 @@
       </c>
       <c r="K221" s="8"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>47</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>10.989000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>47</v>
       </c>
@@ -8202,7 +8211,7 @@
         <v>2.09382010624739E-4</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>47</v>
       </c>
@@ -8233,7 +8242,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>47</v>
       </c>
@@ -8264,7 +8273,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>47</v>
       </c>
@@ -8297,7 +8306,7 @@
         <v>3.0750000000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>47</v>
       </c>
@@ -8330,7 +8339,7 @@
         <v>5.8590379713447398E-5</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>47</v>
       </c>
@@ -8361,7 +8370,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>47</v>
       </c>
@@ -8392,7 +8401,7 @@
         <v>0.36986156609954601</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>47</v>
       </c>
@@ -8427,7 +8436,7 @@
         <v>2787.4749000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>47</v>
       </c>
@@ -8462,7 +8471,7 @@
         <v>5.3111939132586598E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>47</v>
       </c>
@@ -8495,7 +8504,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>47</v>
       </c>
@@ -8528,7 +8537,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
@@ -8563,7 +8572,7 @@
         <v>658.40260000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>47</v>
       </c>
@@ -8598,7 +8607,7 @@
         <v>1.25450596222182E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>47</v>
       </c>
@@ -8631,7 +8640,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>47</v>
       </c>
@@ -8664,7 +8673,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>47</v>
       </c>
@@ -8697,7 +8706,7 @@
         <v>145.2114</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>47</v>
       </c>
@@ -8730,7 +8739,7 @@
         <v>2.76682636251099E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>47</v>
       </c>
@@ -8761,7 +8770,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>47</v>
       </c>
@@ -8792,7 +8801,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>47</v>
       </c>
@@ -8825,7 +8834,7 @@
         <v>46.914400000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>47</v>
       </c>
@@ -8858,7 +8867,7 @@
         <v>8.9389675122879904E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>47</v>
       </c>
@@ -8889,7 +8898,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>47</v>
       </c>
@@ -8920,7 +8929,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>47</v>
       </c>
@@ -8953,7 +8962,7 @@
         <v>44.490400000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>47</v>
       </c>
@@ -8986,7 +8995,7 @@
         <v>8.4771038361078398E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>47</v>
       </c>
@@ -9017,7 +9026,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>47</v>
       </c>
@@ -9048,7 +9057,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>47</v>
       </c>
@@ -9081,7 +9090,7 @@
         <v>3.0990000000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>47</v>
       </c>
@@ -9114,7 +9123,7 @@
         <v>5.9047670481942602E-5</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>47</v>
       </c>
@@ -9145,7 +9154,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>47</v>
       </c>
@@ -9176,7 +9185,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>47</v>
       </c>
@@ -9209,7 +9218,7 @@
         <v>0.52236000000000005</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>47</v>
       </c>
@@ -9242,7 +9251,7 @@
         <v>9.9529335762980199E-6</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>47</v>
       </c>
@@ -9273,7 +9282,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>47</v>
       </c>
@@ -9304,7 +9313,7 @@
         <v>0.20099155835454899</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>47</v>
       </c>
@@ -9339,7 +9348,7 @@
         <v>1490.106</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>47</v>
       </c>
@@ -9374,7 +9383,7 @@
         <v>2.8392154911637799E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>47</v>
       </c>
@@ -9407,7 +9416,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>47</v>
       </c>
@@ -9440,7 +9449,7 @@
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>47</v>
       </c>
@@ -9475,7 +9484,7 @@
         <v>2787.4749000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>47</v>
       </c>
@@ -9510,7 +9519,7 @@
         <v>5.3111939132586598E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>47</v>
       </c>
@@ -9543,7 +9552,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>47</v>
       </c>
@@ -9576,7 +9585,7 @@
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>47</v>
       </c>
@@ -9611,7 +9620,7 @@
         <v>971.52470000000005</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>47</v>
       </c>
@@ -9646,7 +9655,7 @@
         <v>1.85112198614612E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>47</v>
       </c>
@@ -9679,7 +9688,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>47</v>
       </c>
@@ -9712,7 +9721,7 @@
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>47</v>
       </c>
@@ -9745,7 +9754,7 @@
         <v>551.62660000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>47</v>
       </c>
@@ -9778,7 +9787,7 @@
         <v>1.0510572993183099E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>47</v>
       </c>
@@ -9809,7 +9818,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>47</v>
       </c>
@@ -9840,7 +9849,7 @@
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>47</v>
       </c>
@@ -9873,7 +9882,7 @@
         <v>145.2114</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>47</v>
       </c>
@@ -9906,7 +9915,7 @@
         <v>2.76682636251099E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>47</v>
       </c>
@@ -9937,7 +9946,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>47</v>
       </c>
@@ -9968,7 +9977,7 @@
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>47</v>
       </c>
@@ -10001,7 +10010,7 @@
         <v>13.986000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>47</v>
       </c>
@@ -10034,7 +10043,7 @@
         <v>2.6648619534057799E-4</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>47</v>
       </c>
@@ -10065,7 +10074,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>47</v>
       </c>
@@ -10096,7 +10105,7 @@
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>47</v>
       </c>
@@ -10131,7 +10140,7 @@
         <v>214.2448</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>47</v>
       </c>
@@ -10166,7 +10175,7 @@
         <v>3.6850703737038599E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>47</v>
       </c>
@@ -10199,7 +10208,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>47</v>
       </c>
@@ -10232,7 +10241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>47</v>
       </c>
@@ -10265,7 +10274,7 @@
       </c>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>47</v>
       </c>
@@ -10298,7 +10307,7 @@
       </c>
       <c r="K287" s="3"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>47</v>
       </c>
@@ -10327,9 +10336,9 @@
       <c r="J288" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K288" s="6"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K288" s="9"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>47</v>
       </c>
@@ -10358,9 +10367,9 @@
       <c r="J289" s="8">
         <v>1</v>
       </c>
-      <c r="K289" s="8"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K289" s="10"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>47</v>
       </c>
@@ -10393,7 +10402,7 @@
         <v>79.249099999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>47</v>
       </c>
@@ -10426,7 +10435,7 @@
         <v>1.3631066450746699E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>47</v>
       </c>
@@ -10452,12 +10461,12 @@
         <v>20</v>
       </c>
       <c r="I292" s="5"/>
-      <c r="J292" s="6"/>
+      <c r="J292" s="9"/>
       <c r="K292" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>47</v>
       </c>
@@ -10483,12 +10492,12 @@
         <v>21</v>
       </c>
       <c r="I293" s="7"/>
-      <c r="J293" s="8"/>
+      <c r="J293" s="10"/>
       <c r="K293" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>47</v>
       </c>
@@ -10521,7 +10530,7 @@
         <v>5284.6855999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>47</v>
       </c>
@@ -10554,7 +10563,7 @@
         <v>9.08980677192604E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>47</v>
       </c>
@@ -10580,12 +10589,12 @@
         <v>20</v>
       </c>
       <c r="I296" s="5"/>
-      <c r="J296" s="6"/>
+      <c r="J296" s="9"/>
       <c r="K296" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>47</v>
       </c>
@@ -10611,12 +10620,12 @@
         <v>21</v>
       </c>
       <c r="I297" s="7"/>
-      <c r="J297" s="8"/>
+      <c r="J297" s="10"/>
       <c r="K297" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>47</v>
       </c>
@@ -10649,7 +10658,7 @@
         <v>6.6877000000000004</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>47</v>
       </c>
@@ -10682,7 +10691,7 @@
         <v>1.15030307098325E-4</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>47</v>
       </c>
@@ -10708,12 +10717,12 @@
         <v>20</v>
       </c>
       <c r="I300" s="5"/>
-      <c r="J300" s="6"/>
+      <c r="J300" s="9"/>
       <c r="K300" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>47</v>
       </c>
@@ -10739,12 +10748,12 @@
         <v>21</v>
       </c>
       <c r="I301" s="7"/>
-      <c r="J301" s="8"/>
+      <c r="J301" s="10"/>
       <c r="K301" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>47</v>
       </c>
@@ -10777,7 +10786,7 @@
         <v>70.034999999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>47</v>
       </c>
@@ -10810,7 +10819,7 @@
         <v>1.2046215526460801E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>47</v>
       </c>
@@ -10836,12 +10845,12 @@
         <v>20</v>
       </c>
       <c r="I304" s="5"/>
-      <c r="J304" s="6"/>
+      <c r="J304" s="9"/>
       <c r="K304" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>47</v>
       </c>
@@ -10867,7 +10876,7 @@
         <v>21</v>
       </c>
       <c r="I305" s="7"/>
-      <c r="J305" s="8"/>
+      <c r="J305" s="10"/>
       <c r="K305" s="8">
         <v>1</v>
       </c>

--- a/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AD003-B17E-3E42-9259-EAD583614368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EBE421-C87E-C546-932A-4ABA51F8BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26640" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="63">
   <si>
     <t>Country</t>
   </si>
@@ -156,18 +156,6 @@
     <t>Kerosene stoves</t>
   </si>
   <si>
-    <t>Non-energy</t>
-  </si>
-  <si>
-    <t>Bitumen</t>
-  </si>
-  <si>
-    <t>Lubricants</t>
-  </si>
-  <si>
-    <t>Other oil products</t>
-  </si>
-  <si>
     <t>ZAF</t>
   </si>
   <si>
@@ -222,16 +210,10 @@
     <t>Wood furnaces</t>
   </si>
   <si>
-    <t>Hard coal (if no detail)</t>
+    <t>Non-energy consumption</t>
   </si>
   <si>
-    <t>Other bituminous coal</t>
-  </si>
-  <si>
-    <t>Paraffin waxes</t>
-  </si>
-  <si>
-    <t>White spirit &amp; SBP</t>
+    <t>NEU</t>
   </si>
 </sst>
 </file>
@@ -241,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#####"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,12 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -319,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -329,8 +305,6 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J304" sqref="J304:J305"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3754,20 +3728,22 @@
         <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I90" s="2">
-        <v>5.5890000000000004</v>
-      </c>
-      <c r="J90" s="2"/>
+        <v>62.625399999999999</v>
+      </c>
+      <c r="J90" s="2">
+        <v>18.056699999999999</v>
+      </c>
       <c r="K90" s="2">
-        <v>5.5890000000000004</v>
+        <v>68.214399999999998</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -3787,20 +3763,22 @@
         <v>15</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I91" s="3">
-        <v>1.0305607070785999E-3</v>
-      </c>
-      <c r="J91" s="3"/>
+        <v>1.154755349885132E-2</v>
+      </c>
+      <c r="J91" s="3">
+        <v>6.9266799683738896E-3</v>
+      </c>
       <c r="K91" s="3">
-        <v>1.0305607070785999E-3</v>
+        <v>1.257811420592992E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -3820,16 +3798,18 @@
         <v>15</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I92" s="5"/>
-      <c r="J92" s="9"/>
+      <c r="J92" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="K92" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -3851,23 +3831,25 @@
         <v>15</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="7"/>
-      <c r="J93" s="10"/>
+      <c r="J93" s="8">
+        <v>1</v>
+      </c>
       <c r="K93" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
@@ -3882,27 +3864,27 @@
         <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I94" s="2">
-        <v>31.0977</v>
+        <v>3295.5133999999998</v>
       </c>
       <c r="J94" s="2">
-        <v>18.056699999999999</v>
+        <v>3295.5133999999998</v>
       </c>
       <c r="K94" s="2">
-        <v>31.0977</v>
+        <v>192.65129999999999</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>12</v>
@@ -3917,27 +3899,27 @@
         <v>15</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I95" s="3">
-        <v>6.9266799683738896E-3</v>
+        <v>9.9221857814081202E-2</v>
       </c>
       <c r="J95" s="3">
-        <v>6.9266799683738896E-3</v>
+        <v>9.9221857814081202E-2</v>
       </c>
       <c r="K95" s="3">
-        <v>5.7341327071959401E-3</v>
+        <v>3.6707358761916302E-3</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>12</v>
@@ -3952,25 +3934,25 @@
         <v>15</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>0.6</v>
       </c>
       <c r="K96" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>12</v>
@@ -3985,10 +3967,10 @@
         <v>15</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>21</v>
@@ -4003,7 +3985,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>12</v>
@@ -4018,25 +4000,27 @@
         <v>15</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I98" s="2">
-        <v>31.527699999999999</v>
-      </c>
-      <c r="J98" s="2"/>
+        <v>5168.6931100000002</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1030.4471900000001</v>
+      </c>
       <c r="K98" s="2">
-        <v>31.527699999999999</v>
+        <v>5168.6931100000002</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>12</v>
@@ -4051,25 +4035,27 @@
         <v>15</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I99" s="3">
-        <v>5.8134207916553798E-3</v>
-      </c>
-      <c r="J99" s="3"/>
+        <v>9.8483151849489303E-2</v>
+      </c>
+      <c r="J99" s="3">
+        <v>3.10248729594301E-2</v>
+      </c>
       <c r="K99" s="3">
-        <v>5.8134207916553798E-3</v>
+        <v>9.8483151849489303E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>12</v>
@@ -4084,23 +4070,25 @@
         <v>15</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I100" s="5"/>
-      <c r="J100" s="9"/>
+      <c r="J100" s="6">
+        <v>0.87</v>
+      </c>
       <c r="K100" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>12</v>
@@ -4115,23 +4103,25 @@
         <v>15</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I101" s="7"/>
-      <c r="J101" s="10"/>
+      <c r="J101" s="8">
+        <v>1</v>
+      </c>
       <c r="K101" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>12</v>
@@ -4146,7 +4136,7 @@
         <v>15</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>17</v>
@@ -4155,18 +4145,18 @@
         <v>18</v>
       </c>
       <c r="I102" s="2">
-        <v>3295.5133999999998</v>
+        <v>4109.3926000000001</v>
       </c>
       <c r="J102" s="2">
-        <v>3295.5133999999998</v>
+        <v>1850.6161999999999</v>
       </c>
       <c r="K102" s="2">
-        <v>192.65129999999999</v>
+        <v>4109.3926000000001</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>12</v>
@@ -4181,7 +4171,7 @@
         <v>15</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>17</v>
@@ -4190,18 +4180,18 @@
         <v>19</v>
       </c>
       <c r="I103" s="3">
-        <v>9.9221857814081202E-2</v>
+        <v>7.8299470837603594E-2</v>
       </c>
       <c r="J103" s="3">
-        <v>9.9221857814081202E-2</v>
+        <v>5.5718655996008198E-2</v>
       </c>
       <c r="K103" s="3">
-        <v>3.6707358761916302E-3</v>
+        <v>7.8299470837603594E-2</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>12</v>
@@ -4216,7 +4206,7 @@
         <v>15</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>17</v>
@@ -4226,15 +4216,15 @@
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K104" s="6">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>12</v>
@@ -4249,7 +4239,7 @@
         <v>15</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>17</v>
@@ -4267,7 +4257,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>12</v>
@@ -4282,7 +4272,7 @@
         <v>15</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>17</v>
@@ -4291,18 +4281,18 @@
         <v>18</v>
       </c>
       <c r="I106" s="2">
-        <v>5168.6931100000002</v>
+        <v>4029.2543000000001</v>
       </c>
       <c r="J106" s="2">
-        <v>1030.4471900000001</v>
+        <v>2305.6653999999999</v>
       </c>
       <c r="K106" s="2">
-        <v>5168.6931100000002</v>
+        <v>4029.2543000000001</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>12</v>
@@ -4317,7 +4307,7 @@
         <v>15</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>17</v>
@@ -4326,18 +4316,18 @@
         <v>19</v>
       </c>
       <c r="I107" s="3">
-        <v>9.8483151849489303E-2</v>
+        <v>7.6772533137899501E-2</v>
       </c>
       <c r="J107" s="3">
-        <v>3.10248729594301E-2</v>
+        <v>6.9419351924239397E-2</v>
       </c>
       <c r="K107" s="3">
-        <v>9.8483151849489303E-2</v>
+        <v>7.6772533137899501E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>12</v>
@@ -4352,7 +4342,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>17</v>
@@ -4362,15 +4352,15 @@
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="6">
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
       <c r="K108" s="6">
-        <v>0.96</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>12</v>
@@ -4385,7 +4375,7 @@
         <v>15</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>17</v>
@@ -4403,7 +4393,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>12</v>
@@ -4418,7 +4408,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>17</v>
@@ -4427,18 +4417,18 @@
         <v>18</v>
       </c>
       <c r="I110" s="2">
-        <v>4109.3926000000001</v>
+        <v>2496.8186000000001</v>
       </c>
       <c r="J110" s="2">
-        <v>1850.6161999999999</v>
+        <v>1190.7137</v>
       </c>
       <c r="K110" s="2">
-        <v>4109.3926000000001</v>
+        <v>2496.8186000000001</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>12</v>
@@ -4453,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>17</v>
@@ -4462,18 +4452,18 @@
         <v>19</v>
       </c>
       <c r="I111" s="3">
-        <v>7.8299470837603594E-2</v>
+        <v>4.75738373494628E-2</v>
       </c>
       <c r="J111" s="3">
-        <v>5.5718655996008198E-2</v>
+        <v>3.58502033214851E-2</v>
       </c>
       <c r="K111" s="3">
-        <v>7.8299470837603594E-2</v>
+        <v>4.75738373494628E-2</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>12</v>
@@ -4488,7 +4478,7 @@
         <v>15</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>17</v>
@@ -4506,7 +4496,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>12</v>
@@ -4521,7 +4511,7 @@
         <v>15</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>17</v>
@@ -4539,7 +4529,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>12</v>
@@ -4554,7 +4544,7 @@
         <v>15</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>17</v>
@@ -4563,18 +4553,18 @@
         <v>18</v>
       </c>
       <c r="I114" s="2">
-        <v>4029.2543000000001</v>
+        <v>1673.8107</v>
       </c>
       <c r="J114" s="2">
-        <v>2305.6653999999999</v>
+        <v>711.53150000000005</v>
       </c>
       <c r="K114" s="2">
-        <v>4029.2543000000001</v>
+        <v>1673.8107</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>12</v>
@@ -4589,7 +4579,7 @@
         <v>15</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>17</v>
@@ -4598,18 +4588,18 @@
         <v>19</v>
       </c>
       <c r="I115" s="3">
-        <v>7.6772533137899501E-2</v>
+        <v>3.1892424221603703E-2</v>
       </c>
       <c r="J115" s="3">
-        <v>6.9419351924239397E-2</v>
+        <v>2.1422907072154499E-2</v>
       </c>
       <c r="K115" s="3">
-        <v>7.6772533137899501E-2</v>
+        <v>3.1892424221603703E-2</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>12</v>
@@ -4624,7 +4614,7 @@
         <v>15</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>17</v>
@@ -4642,7 +4632,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>12</v>
@@ -4657,7 +4647,7 @@
         <v>15</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>17</v>
@@ -4675,7 +4665,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>12</v>
@@ -4690,7 +4680,7 @@
         <v>15</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>17</v>
@@ -4699,18 +4689,18 @@
         <v>18</v>
       </c>
       <c r="I118" s="2">
-        <v>2496.8186000000001</v>
+        <v>1672.8117</v>
       </c>
       <c r="J118" s="2">
-        <v>1190.7137</v>
+        <v>711.53150000000005</v>
       </c>
       <c r="K118" s="2">
-        <v>2496.8186000000001</v>
+        <v>1672.8117</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>12</v>
@@ -4725,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>17</v>
@@ -4734,18 +4724,18 @@
         <v>19</v>
       </c>
       <c r="I119" s="3">
-        <v>4.75738373494628E-2</v>
+        <v>3.1873389493364997E-2</v>
       </c>
       <c r="J119" s="3">
-        <v>3.58502033214851E-2</v>
+        <v>2.1422907072154499E-2</v>
       </c>
       <c r="K119" s="3">
-        <v>4.75738373494628E-2</v>
+        <v>3.1873389493364997E-2</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>12</v>
@@ -4760,7 +4750,7 @@
         <v>15</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>17</v>
@@ -4778,7 +4768,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>12</v>
@@ -4793,7 +4783,7 @@
         <v>15</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>17</v>
@@ -4811,7 +4801,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
@@ -4826,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>17</v>
@@ -4835,18 +4825,18 @@
         <v>18</v>
       </c>
       <c r="I122" s="2">
-        <v>1673.8107</v>
+        <v>739.81083000000001</v>
       </c>
       <c r="J122" s="2">
-        <v>711.53150000000005</v>
+        <v>208.63283999999999</v>
       </c>
       <c r="K122" s="2">
-        <v>1673.8107</v>
+        <v>739.81083000000001</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>12</v>
@@ -4861,7 +4851,7 @@
         <v>15</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>17</v>
@@ -4870,18 +4860,18 @@
         <v>19</v>
       </c>
       <c r="I123" s="3">
-        <v>3.1892424221603703E-2</v>
+        <v>1.40961942913238E-2</v>
       </c>
       <c r="J123" s="3">
-        <v>2.1422907072154499E-2</v>
+        <v>6.2815517563448399E-3</v>
       </c>
       <c r="K123" s="3">
-        <v>3.1892424221603703E-2</v>
+        <v>1.40961942913238E-2</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>12</v>
@@ -4896,7 +4886,7 @@
         <v>15</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>17</v>
@@ -4906,15 +4896,15 @@
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="6">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="K124" s="6">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>12</v>
@@ -4929,7 +4919,7 @@
         <v>15</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>17</v>
@@ -4947,22 +4937,22 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>17</v>
@@ -4971,33 +4961,33 @@
         <v>18</v>
       </c>
       <c r="I126" s="2">
-        <v>1672.8117</v>
+        <v>614.11339999999996</v>
       </c>
       <c r="J126" s="2">
-        <v>711.53150000000005</v>
+        <v>171.50569999999999</v>
       </c>
       <c r="K126" s="2">
-        <v>1672.8117</v>
+        <v>614.11339999999996</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>17</v>
@@ -5006,33 +4996,33 @@
         <v>19</v>
       </c>
       <c r="I127" s="3">
-        <v>3.1873389493364997E-2</v>
+        <v>1.170118285955E-2</v>
       </c>
       <c r="J127" s="3">
-        <v>2.1422907072154499E-2</v>
+        <v>5.1637217374702398E-3</v>
       </c>
       <c r="K127" s="3">
-        <v>3.1873389493364997E-2</v>
+        <v>1.170118285955E-2</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>17</v>
@@ -5050,22 +5040,22 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>17</v>
@@ -5083,7 +5073,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>12</v>
@@ -5098,7 +5088,7 @@
         <v>15</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>17</v>
@@ -5107,18 +5097,16 @@
         <v>18</v>
       </c>
       <c r="I130" s="2">
-        <v>739.81083000000001</v>
-      </c>
-      <c r="J130" s="2">
-        <v>208.63283999999999</v>
-      </c>
+        <v>518.56809999999996</v>
+      </c>
+      <c r="J130" s="2"/>
       <c r="K130" s="2">
-        <v>739.81083000000001</v>
+        <v>518.56809999999996</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>12</v>
@@ -5133,7 +5121,7 @@
         <v>15</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>17</v>
@@ -5142,18 +5130,16 @@
         <v>19</v>
       </c>
       <c r="I131" s="3">
-        <v>1.40961942913238E-2</v>
-      </c>
-      <c r="J131" s="3">
-        <v>6.2815517563448399E-3</v>
-      </c>
+        <v>9.8806835402539799E-3</v>
+      </c>
+      <c r="J131" s="3"/>
       <c r="K131" s="3">
-        <v>1.40961942913238E-2</v>
+        <v>9.8806835402539799E-3</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>12</v>
@@ -5168,7 +5154,7 @@
         <v>15</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>17</v>
@@ -5177,16 +5163,14 @@
         <v>20</v>
       </c>
       <c r="I132" s="5"/>
-      <c r="J132" s="6">
-        <v>0.12</v>
-      </c>
+      <c r="J132" s="6"/>
       <c r="K132" s="6">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>12</v>
@@ -5201,7 +5185,7 @@
         <v>15</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>17</v>
@@ -5210,16 +5194,14 @@
         <v>21</v>
       </c>
       <c r="I133" s="7"/>
-      <c r="J133" s="8">
-        <v>1</v>
-      </c>
+      <c r="J133" s="8"/>
       <c r="K133" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>12</v>
@@ -5234,7 +5216,7 @@
         <v>15</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>17</v>
@@ -5243,18 +5225,18 @@
         <v>18</v>
       </c>
       <c r="I134" s="2">
-        <v>614.11339999999996</v>
+        <v>162.08090000000001</v>
       </c>
       <c r="J134" s="2">
-        <v>171.50569999999999</v>
+        <v>51.762700000000002</v>
       </c>
       <c r="K134" s="2">
-        <v>614.11339999999996</v>
+        <v>162.08090000000001</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>12</v>
@@ -5269,7 +5251,7 @@
         <v>15</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>17</v>
@@ -5278,18 +5260,18 @@
         <v>19</v>
       </c>
       <c r="I135" s="3">
-        <v>1.170118285955E-2</v>
+        <v>3.0882541383080702E-3</v>
       </c>
       <c r="J135" s="3">
-        <v>5.1637217374702398E-3</v>
+        <v>1.5584798591542499E-3</v>
       </c>
       <c r="K135" s="3">
-        <v>1.170118285955E-2</v>
+        <v>3.0882541383080702E-3</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>12</v>
@@ -5304,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>17</v>
@@ -5314,15 +5296,15 @@
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="K136" s="6">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>12</v>
@@ -5337,7 +5319,7 @@
         <v>15</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>17</v>
@@ -5355,7 +5337,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>12</v>
@@ -5370,7 +5352,7 @@
         <v>15</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>17</v>
@@ -5379,16 +5361,16 @@
         <v>18</v>
       </c>
       <c r="I138" s="2">
-        <v>518.56809999999996</v>
+        <v>102.61539999999999</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2">
-        <v>518.56809999999996</v>
+        <v>102.61539999999999</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>12</v>
@@ -5403,7 +5385,7 @@
         <v>15</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>17</v>
@@ -5412,16 +5394,16 @@
         <v>19</v>
       </c>
       <c r="I139" s="3">
-        <v>9.8806835402539799E-3</v>
+        <v>1.9552114635601001E-3</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3">
-        <v>9.8806835402539799E-3</v>
+        <v>1.9552114635601001E-3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>12</v>
@@ -5436,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>17</v>
@@ -5452,7 +5434,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>12</v>
@@ -5467,7 +5449,7 @@
         <v>15</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>17</v>
@@ -5483,7 +5465,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>12</v>
@@ -5498,7 +5480,7 @@
         <v>15</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>17</v>
@@ -5507,18 +5489,16 @@
         <v>18</v>
       </c>
       <c r="I142" s="2">
-        <v>162.08090000000001</v>
-      </c>
-      <c r="J142" s="2">
-        <v>51.762700000000002</v>
-      </c>
+        <v>33.663899999999998</v>
+      </c>
+      <c r="J142" s="2"/>
       <c r="K142" s="2">
-        <v>162.08090000000001</v>
+        <v>33.663899999999998</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>12</v>
@@ -5533,7 +5513,7 @@
         <v>15</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>17</v>
@@ -5542,18 +5522,16 @@
         <v>19</v>
       </c>
       <c r="I143" s="3">
-        <v>3.0882541383080702E-3</v>
-      </c>
-      <c r="J143" s="3">
-        <v>1.5584798591542499E-3</v>
-      </c>
+        <v>6.41424612564398E-4</v>
+      </c>
+      <c r="J143" s="3"/>
       <c r="K143" s="3">
-        <v>3.0882541383080702E-3</v>
+        <v>6.41424612564398E-4</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>12</v>
@@ -5568,7 +5546,7 @@
         <v>15</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>17</v>
@@ -5577,16 +5555,14 @@
         <v>20</v>
       </c>
       <c r="I144" s="5"/>
-      <c r="J144" s="6">
-        <v>0.45</v>
-      </c>
+      <c r="J144" s="6"/>
       <c r="K144" s="6">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>12</v>
@@ -5601,7 +5577,7 @@
         <v>15</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>17</v>
@@ -5610,16 +5586,14 @@
         <v>21</v>
       </c>
       <c r="I145" s="7"/>
-      <c r="J145" s="8">
-        <v>1</v>
-      </c>
+      <c r="J145" s="8"/>
       <c r="K145" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>12</v>
@@ -5634,25 +5608,27 @@
         <v>15</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I146" s="2">
-        <v>102.61539999999999</v>
-      </c>
-      <c r="J146" s="2"/>
+        <v>6263.6178600000003</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1413.92948</v>
+      </c>
       <c r="K146" s="2">
-        <v>102.61539999999999</v>
+        <v>6263.6178600000003</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>12</v>
@@ -5667,25 +5643,27 @@
         <v>15</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I147" s="3">
-        <v>1.9552114635601001E-3</v>
-      </c>
-      <c r="J147" s="3"/>
+        <v>0.11934560936498601</v>
+      </c>
+      <c r="J147" s="3">
+        <v>4.25708206265214E-2</v>
+      </c>
       <c r="K147" s="3">
-        <v>1.9552114635601001E-3</v>
+        <v>0.11934560936498601</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>12</v>
@@ -5700,23 +5678,25 @@
         <v>15</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I148" s="5"/>
-      <c r="J148" s="6"/>
+      <c r="J148" s="6">
+        <v>0.2</v>
+      </c>
       <c r="K148" s="6">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>12</v>
@@ -5731,23 +5711,25 @@
         <v>15</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I149" s="7"/>
-      <c r="J149" s="8"/>
+      <c r="J149" s="8">
+        <v>0.12612005856515399</v>
+      </c>
       <c r="K149" s="8">
-        <v>1</v>
+        <v>0.183016105417277</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>12</v>
@@ -5762,25 +5744,25 @@
         <v>15</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I150" s="2">
-        <v>33.663899999999998</v>
+        <v>149.78620000000001</v>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2">
-        <v>33.663899999999998</v>
+        <v>149.78620000000001</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>12</v>
@@ -5795,25 +5777,25 @@
         <v>15</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I151" s="3">
-        <v>6.41424612564398E-4</v>
+        <v>2.8539936044989899E-3</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3">
-        <v>6.41424612564398E-4</v>
+        <v>2.8539936044989899E-3</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>12</v>
@@ -5828,10 +5810,10 @@
         <v>15</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>20</v>
@@ -5839,12 +5821,12 @@
       <c r="I152" s="5"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>12</v>
@@ -5859,10 +5841,10 @@
         <v>15</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>21</v>
@@ -5870,12 +5852,12 @@
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8">
-        <v>1</v>
+        <v>0.183016105417277</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>12</v>
@@ -5890,7 +5872,7 @@
         <v>15</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>30</v>
@@ -5899,18 +5881,18 @@
         <v>18</v>
       </c>
       <c r="I154" s="2">
-        <v>6263.6178600000003</v>
+        <v>115.44604</v>
       </c>
       <c r="J154" s="2">
-        <v>1413.92948</v>
+        <v>43.2502</v>
       </c>
       <c r="K154" s="2">
-        <v>6263.6178600000003</v>
+        <v>115.44604</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>12</v>
@@ -5925,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>30</v>
@@ -5934,18 +5916,18 @@
         <v>19</v>
       </c>
       <c r="I155" s="3">
-        <v>0.11934560936498601</v>
+        <v>2.1996836813053099E-3</v>
       </c>
       <c r="J155" s="3">
-        <v>4.25708206265214E-2</v>
+        <v>1.3021841133556201E-3</v>
       </c>
       <c r="K155" s="3">
-        <v>0.11934560936498601</v>
+        <v>2.1996836813053099E-3</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>12</v>
@@ -5960,7 +5942,7 @@
         <v>15</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>30</v>
@@ -5978,7 +5960,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>12</v>
@@ -5993,7 +5975,7 @@
         <v>15</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>30</v>
@@ -6011,7 +5993,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>12</v>
@@ -6026,25 +6008,27 @@
         <v>15</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I158" s="2">
-        <v>149.78620000000001</v>
-      </c>
-      <c r="J158" s="2"/>
+        <v>7157.4813000000004</v>
+      </c>
+      <c r="J158" s="2">
+        <v>7157.4813000000004</v>
+      </c>
       <c r="K158" s="2">
-        <v>149.78620000000001</v>
+        <v>4612.0276000000003</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>12</v>
@@ -6059,25 +6043,27 @@
         <v>15</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I159" s="3">
-        <v>2.8539936044989899E-3</v>
-      </c>
-      <c r="J159" s="3"/>
+        <v>0.215498620595973</v>
+      </c>
+      <c r="J159" s="3">
+        <v>0.215498620595973</v>
+      </c>
       <c r="K159" s="3">
-        <v>2.8539936044989899E-3</v>
+        <v>8.7876568563544602E-2</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>12</v>
@@ -6092,23 +6078,25 @@
         <v>15</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I160" s="5"/>
-      <c r="J160" s="6"/>
+      <c r="J160" s="6">
+        <v>0.85</v>
+      </c>
       <c r="K160" s="6">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>12</v>
@@ -6123,23 +6111,25 @@
         <v>15</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I161" s="7"/>
-      <c r="J161" s="8"/>
+      <c r="J161" s="8">
+        <v>0.658535188684648</v>
+      </c>
       <c r="K161" s="8">
-        <v>0.183016105417277</v>
+        <v>0.658535188684648</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>12</v>
@@ -6154,27 +6144,27 @@
         <v>15</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I162" s="2">
-        <v>115.44604</v>
+        <v>1683.98972</v>
       </c>
       <c r="J162" s="2">
-        <v>43.2502</v>
+        <v>78.899360000000001</v>
       </c>
       <c r="K162" s="2">
-        <v>115.44604</v>
+        <v>1683.98972</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>12</v>
@@ -6189,27 +6179,27 @@
         <v>15</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I163" s="3">
-        <v>2.1996836813053099E-3</v>
+        <v>3.2086373049867299E-2</v>
       </c>
       <c r="J163" s="3">
-        <v>1.3021841133556201E-3</v>
+        <v>2.3755148680451501E-3</v>
       </c>
       <c r="K163" s="3">
-        <v>2.1996836813053099E-3</v>
+        <v>3.2086373049867299E-2</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>12</v>
@@ -6224,25 +6214,25 @@
         <v>15</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="6">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K164" s="6">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>12</v>
@@ -6257,25 +6247,25 @@
         <v>15</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="8">
-        <v>0.12612005856515399</v>
+        <v>0.658535188684648</v>
       </c>
       <c r="K165" s="8">
-        <v>0.183016105417277</v>
+        <v>0.658535188684648</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>12</v>
@@ -6290,7 +6280,7 @@
         <v>15</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>32</v>
@@ -6299,18 +6289,16 @@
         <v>18</v>
       </c>
       <c r="I166" s="2">
-        <v>7157.4813000000004</v>
-      </c>
-      <c r="J166" s="2">
-        <v>7157.4813000000004</v>
-      </c>
+        <v>1052.3454999999999</v>
+      </c>
+      <c r="J166" s="2"/>
       <c r="K166" s="2">
-        <v>4612.0276000000003</v>
+        <v>1052.3454999999999</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>12</v>
@@ -6325,7 +6313,7 @@
         <v>15</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>32</v>
@@ -6334,18 +6322,16 @@
         <v>19</v>
       </c>
       <c r="I167" s="3">
-        <v>0.215498620595973</v>
-      </c>
-      <c r="J167" s="3">
-        <v>0.215498620595973</v>
-      </c>
+        <v>2.0051161767394399E-2</v>
+      </c>
+      <c r="J167" s="3"/>
       <c r="K167" s="3">
-        <v>8.7876568563544602E-2</v>
+        <v>2.0051161767394399E-2</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>12</v>
@@ -6360,7 +6346,7 @@
         <v>15</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>32</v>
@@ -6369,16 +6355,14 @@
         <v>20</v>
       </c>
       <c r="I168" s="5"/>
-      <c r="J168" s="6">
+      <c r="J168" s="6"/>
+      <c r="K168" s="6">
         <v>0.85</v>
-      </c>
-      <c r="K168" s="6">
-        <v>0.9</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>12</v>
@@ -6393,7 +6377,7 @@
         <v>15</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>32</v>
@@ -6402,16 +6386,14 @@
         <v>21</v>
       </c>
       <c r="I169" s="7"/>
-      <c r="J169" s="8">
-        <v>0.658535188684648</v>
-      </c>
+      <c r="J169" s="8"/>
       <c r="K169" s="8">
         <v>0.658535188684648</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>12</v>
@@ -6426,7 +6408,7 @@
         <v>15</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>32</v>
@@ -6435,18 +6417,16 @@
         <v>18</v>
       </c>
       <c r="I170" s="2">
-        <v>1683.98972</v>
+        <v>579.93690000000004</v>
       </c>
       <c r="J170" s="2">
-        <v>78.899360000000001</v>
-      </c>
-      <c r="K170" s="2">
-        <v>1683.98972</v>
-      </c>
+        <v>579.93690000000004</v>
+      </c>
+      <c r="K170" s="2"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>12</v>
@@ -6461,7 +6441,7 @@
         <v>15</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>32</v>
@@ -6470,18 +6450,16 @@
         <v>19</v>
       </c>
       <c r="I171" s="3">
-        <v>3.2086373049867299E-2</v>
+        <v>1.74608352777261E-2</v>
       </c>
       <c r="J171" s="3">
-        <v>2.3755148680451501E-3</v>
-      </c>
-      <c r="K171" s="3">
-        <v>3.2086373049867299E-2</v>
-      </c>
+        <v>1.74608352777261E-2</v>
+      </c>
+      <c r="K171" s="3"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>12</v>
@@ -6496,7 +6474,7 @@
         <v>15</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>32</v>
@@ -6506,15 +6484,13 @@
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="K172" s="6">
-        <v>0.95</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="K172" s="6"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>12</v>
@@ -6529,7 +6505,7 @@
         <v>15</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>32</v>
@@ -6541,13 +6517,11 @@
       <c r="J173" s="8">
         <v>0.658535188684648</v>
       </c>
-      <c r="K173" s="8">
-        <v>0.658535188684648</v>
-      </c>
+      <c r="K173" s="8"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>12</v>
@@ -6562,7 +6536,7 @@
         <v>15</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>32</v>
@@ -6571,16 +6545,18 @@
         <v>18</v>
       </c>
       <c r="I174" s="2">
-        <v>1052.3454999999999</v>
-      </c>
-      <c r="J174" s="2"/>
+        <v>170.63630000000001</v>
+      </c>
+      <c r="J174" s="2">
+        <v>29.148800000000001</v>
+      </c>
       <c r="K174" s="2">
-        <v>1052.3454999999999</v>
+        <v>170.63630000000001</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>12</v>
@@ -6595,7 +6571,7 @@
         <v>15</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>32</v>
@@ -6604,16 +6580,18 @@
         <v>19</v>
       </c>
       <c r="I175" s="3">
-        <v>2.0051161767394399E-2</v>
-      </c>
-      <c r="J175" s="3"/>
+        <v>3.25126686500739E-3</v>
+      </c>
+      <c r="J175" s="3">
+        <v>8.7761684994243697E-4</v>
+      </c>
       <c r="K175" s="3">
-        <v>2.0051161767394399E-2</v>
+        <v>3.25126686500739E-3</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>12</v>
@@ -6628,7 +6606,7 @@
         <v>15</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>32</v>
@@ -6637,14 +6615,16 @@
         <v>20</v>
       </c>
       <c r="I176" s="5"/>
-      <c r="J176" s="6"/>
+      <c r="J176" s="6">
+        <v>0.8</v>
+      </c>
       <c r="K176" s="6">
         <v>0.85</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>12</v>
@@ -6659,7 +6639,7 @@
         <v>15</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>32</v>
@@ -6668,14 +6648,16 @@
         <v>21</v>
       </c>
       <c r="I177" s="7"/>
-      <c r="J177" s="8"/>
+      <c r="J177" s="8">
+        <v>0.658535188684648</v>
+      </c>
       <c r="K177" s="8">
         <v>0.658535188684648</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>12</v>
@@ -6690,25 +6672,27 @@
         <v>15</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I178" s="2">
-        <v>579.93690000000004</v>
+        <v>3459.1066999999998</v>
       </c>
       <c r="J178" s="2">
-        <v>579.93690000000004</v>
-      </c>
-      <c r="K178" s="2"/>
+        <v>2080.0603000000001</v>
+      </c>
+      <c r="K178" s="2">
+        <v>3459.1066999999998</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
@@ -6723,25 +6707,27 @@
         <v>15</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I179" s="3">
-        <v>1.74608352777261E-2</v>
+        <v>6.5909065047912205E-2</v>
       </c>
       <c r="J179" s="3">
-        <v>1.74608352777261E-2</v>
-      </c>
-      <c r="K179" s="3"/>
+        <v>6.2626796580865104E-2</v>
+      </c>
+      <c r="K179" s="3">
+        <v>6.5909065047912205E-2</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>12</v>
@@ -6756,10 +6742,10 @@
         <v>15</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>20</v>
@@ -6768,11 +6754,13 @@
       <c r="J180" s="6">
         <v>0.8</v>
       </c>
-      <c r="K180" s="6"/>
+      <c r="K180" s="6">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>12</v>
@@ -6787,23 +6775,25 @@
         <v>15</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="8">
-        <v>0.658535188684648</v>
-      </c>
-      <c r="K181" s="8"/>
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K181" s="8">
+        <v>0.36986156609954601</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>12</v>
@@ -6818,27 +6808,27 @@
         <v>15</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I182" s="2">
-        <v>170.63630000000001</v>
+        <v>1508.4313</v>
       </c>
       <c r="J182" s="2">
-        <v>29.148800000000001</v>
+        <v>764.30690000000004</v>
       </c>
       <c r="K182" s="2">
-        <v>170.63630000000001</v>
+        <v>1508.4313</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>12</v>
@@ -6853,27 +6843,27 @@
         <v>15</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I183" s="3">
-        <v>3.25126686500739E-3</v>
+        <v>2.87413211833005E-2</v>
       </c>
       <c r="J183" s="3">
-        <v>8.7761684994243697E-4</v>
+        <v>2.3011877468961699E-2</v>
       </c>
       <c r="K183" s="3">
-        <v>3.25126686500739E-3</v>
+        <v>2.87413211833005E-2</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>12</v>
@@ -6888,25 +6878,25 @@
         <v>15</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="6">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="K184" s="6">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>12</v>
@@ -6921,25 +6911,25 @@
         <v>15</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="8">
-        <v>0.658535188684648</v>
+        <v>0.36986156609954601</v>
       </c>
       <c r="K185" s="8">
-        <v>0.658535188684648</v>
+        <v>0.36986156609954601</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>12</v>
@@ -6954,7 +6944,7 @@
         <v>15</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>35</v>
@@ -6963,18 +6953,18 @@
         <v>18</v>
       </c>
       <c r="I186" s="2">
-        <v>3459.1066999999998</v>
+        <v>1233.0180499999999</v>
       </c>
       <c r="J186" s="2">
-        <v>2080.0603000000001</v>
+        <v>347.72140000000002</v>
       </c>
       <c r="K186" s="2">
-        <v>3459.1066999999998</v>
+        <v>1233.0180499999999</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>12</v>
@@ -6989,7 +6979,7 @@
         <v>15</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>35</v>
@@ -6998,18 +6988,18 @@
         <v>19</v>
       </c>
       <c r="I187" s="3">
-        <v>6.5909065047912205E-2</v>
+        <v>2.3493657152206301E-2</v>
       </c>
       <c r="J187" s="3">
-        <v>6.2626796580865104E-2</v>
+        <v>1.04692529272414E-2</v>
       </c>
       <c r="K187" s="3">
-        <v>6.5909065047912205E-2</v>
+        <v>2.3493657152206301E-2</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>12</v>
@@ -7024,7 +7014,7 @@
         <v>15</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>35</v>
@@ -7034,15 +7024,15 @@
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="6">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K188" s="6">
-        <v>0.85</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>12</v>
@@ -7057,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>35</v>
@@ -7075,7 +7065,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>12</v>
@@ -7090,7 +7080,7 @@
         <v>15</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>35</v>
@@ -7099,18 +7089,18 @@
         <v>18</v>
       </c>
       <c r="I190" s="2">
-        <v>1508.4313</v>
+        <v>559.68759999999997</v>
       </c>
       <c r="J190" s="2">
-        <v>764.30690000000004</v>
+        <v>559.68759999999997</v>
       </c>
       <c r="K190" s="2">
-        <v>1508.4313</v>
+        <v>5.165</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>12</v>
@@ -7125,7 +7115,7 @@
         <v>15</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>35</v>
@@ -7134,18 +7124,18 @@
         <v>19</v>
       </c>
       <c r="I191" s="3">
-        <v>2.87413211833005E-2</v>
+        <v>1.6851166033038899E-2</v>
       </c>
       <c r="J191" s="3">
-        <v>2.3011877468961699E-2</v>
+        <v>1.6851166033038899E-2</v>
       </c>
       <c r="K191" s="3">
-        <v>2.87413211833005E-2</v>
+        <v>9.8412784136571002E-5</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>12</v>
@@ -7160,7 +7150,7 @@
         <v>15</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>35</v>
@@ -7170,15 +7160,15 @@
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="6">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K192" s="6">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>12</v>
@@ -7193,7 +7183,7 @@
         <v>15</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>35</v>
@@ -7211,7 +7201,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
@@ -7226,7 +7216,7 @@
         <v>15</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>35</v>
@@ -7235,18 +7225,16 @@
         <v>18</v>
       </c>
       <c r="I194" s="2">
-        <v>1233.0180499999999</v>
+        <v>523.55020000000002</v>
       </c>
       <c r="J194" s="2">
-        <v>347.72140000000002</v>
-      </c>
-      <c r="K194" s="2">
-        <v>1233.0180499999999</v>
-      </c>
+        <v>523.55020000000002</v>
+      </c>
+      <c r="K194" s="2"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>12</v>
@@ -7261,7 +7249,7 @@
         <v>15</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>35</v>
@@ -7270,18 +7258,16 @@
         <v>19</v>
       </c>
       <c r="I195" s="3">
-        <v>2.3493657152206301E-2</v>
+        <v>1.5763135268372402E-2</v>
       </c>
       <c r="J195" s="3">
-        <v>1.04692529272414E-2</v>
-      </c>
-      <c r="K195" s="3">
-        <v>2.3493657152206301E-2</v>
-      </c>
+        <v>1.5763135268372402E-2</v>
+      </c>
+      <c r="K195" s="3"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>12</v>
@@ -7296,7 +7282,7 @@
         <v>15</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>35</v>
@@ -7306,15 +7292,13 @@
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="K196" s="6">
-        <v>0.35</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="K196" s="6"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>12</v>
@@ -7329,7 +7313,7 @@
         <v>15</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>35</v>
@@ -7341,13 +7325,11 @@
       <c r="J197" s="8">
         <v>0.36986156609954601</v>
       </c>
-      <c r="K197" s="8">
-        <v>0.36986156609954601</v>
-      </c>
+      <c r="K197" s="8"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>12</v>
@@ -7362,7 +7344,7 @@
         <v>15</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>35</v>
@@ -7371,18 +7353,18 @@
         <v>18</v>
       </c>
       <c r="I198" s="2">
-        <v>559.68759999999997</v>
+        <v>574.6345</v>
       </c>
       <c r="J198" s="2">
-        <v>559.68759999999997</v>
+        <v>66.057599999999994</v>
       </c>
       <c r="K198" s="2">
-        <v>5.165</v>
+        <v>574.6345</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>12</v>
@@ -7397,7 +7379,7 @@
         <v>15</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>35</v>
@@ -7406,18 +7388,18 @@
         <v>19</v>
       </c>
       <c r="I199" s="3">
-        <v>1.6851166033038899E-2</v>
+        <v>1.09489605045356E-2</v>
       </c>
       <c r="J199" s="3">
-        <v>1.6851166033038899E-2</v>
+        <v>1.9888730522957202E-3</v>
       </c>
       <c r="K199" s="3">
-        <v>9.8412784136571002E-5</v>
+        <v>1.09489605045356E-2</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>12</v>
@@ -7432,7 +7414,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>35</v>
@@ -7442,15 +7424,15 @@
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="K200" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>12</v>
@@ -7465,7 +7447,7 @@
         <v>15</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>35</v>
@@ -7483,7 +7465,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>12</v>
@@ -7498,7 +7480,7 @@
         <v>15</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>35</v>
@@ -7507,16 +7489,18 @@
         <v>18</v>
       </c>
       <c r="I202" s="2">
-        <v>523.55020000000002</v>
+        <v>477.73973000000001</v>
       </c>
       <c r="J202" s="2">
-        <v>523.55020000000002</v>
-      </c>
-      <c r="K202" s="2"/>
+        <v>43.155630000000002</v>
+      </c>
+      <c r="K202" s="2">
+        <v>477.73973000000001</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>12</v>
@@ -7531,7 +7515,7 @@
         <v>15</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>35</v>
@@ -7540,16 +7524,18 @@
         <v>19</v>
       </c>
       <c r="I203" s="3">
-        <v>1.5763135268372402E-2</v>
+        <v>9.1027486780162099E-3</v>
       </c>
       <c r="J203" s="3">
-        <v>1.5763135268372402E-2</v>
-      </c>
-      <c r="K203" s="3"/>
+        <v>1.2993367842889399E-3</v>
+      </c>
+      <c r="K203" s="3">
+        <v>9.1027486780162099E-3</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>12</v>
@@ -7564,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>35</v>
@@ -7576,11 +7562,13 @@
       <c r="J204" s="6">
         <v>0.4</v>
       </c>
-      <c r="K204" s="6"/>
+      <c r="K204" s="6">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>12</v>
@@ -7595,7 +7583,7 @@
         <v>15</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>35</v>
@@ -7607,11 +7595,13 @@
       <c r="J205" s="8">
         <v>0.36986156609954601</v>
       </c>
-      <c r="K205" s="8"/>
+      <c r="K205" s="8">
+        <v>0.36986156609954601</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>12</v>
@@ -7626,7 +7616,7 @@
         <v>15</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>35</v>
@@ -7635,18 +7625,18 @@
         <v>18</v>
       </c>
       <c r="I206" s="2">
-        <v>574.6345</v>
+        <v>119.7526</v>
       </c>
       <c r="J206" s="2">
-        <v>66.057599999999994</v>
+        <v>119.7526</v>
       </c>
       <c r="K206" s="2">
-        <v>574.6345</v>
+        <v>2.6808000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>12</v>
@@ -7661,7 +7651,7 @@
         <v>15</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>35</v>
@@ -7670,18 +7660,18 @@
         <v>19</v>
       </c>
       <c r="I207" s="3">
-        <v>1.09489605045356E-2</v>
+        <v>3.6055309166901101E-3</v>
       </c>
       <c r="J207" s="3">
-        <v>1.9888730522957202E-3</v>
+        <v>3.6055309166901101E-3</v>
       </c>
       <c r="K207" s="3">
-        <v>1.09489605045356E-2</v>
+        <v>5.1079378840913802E-5</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>12</v>
@@ -7696,7 +7686,7 @@
         <v>15</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>35</v>
@@ -7706,15 +7696,15 @@
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K208" s="6">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>12</v>
@@ -7729,7 +7719,7 @@
         <v>15</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>35</v>
@@ -7747,7 +7737,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>12</v>
@@ -7762,7 +7752,7 @@
         <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>35</v>
@@ -7771,18 +7761,16 @@
         <v>18</v>
       </c>
       <c r="I210" s="2">
-        <v>477.73973000000001</v>
+        <v>76.729799999999997</v>
       </c>
       <c r="J210" s="2">
-        <v>43.155630000000002</v>
-      </c>
-      <c r="K210" s="2">
-        <v>477.73973000000001</v>
-      </c>
+        <v>76.729799999999997</v>
+      </c>
+      <c r="K210" s="2"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>12</v>
@@ -7797,7 +7785,7 @@
         <v>15</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>35</v>
@@ -7806,18 +7794,16 @@
         <v>19</v>
       </c>
       <c r="I211" s="3">
-        <v>9.1027486780162099E-3</v>
+        <v>2.3101933998213699E-3</v>
       </c>
       <c r="J211" s="3">
-        <v>1.2993367842889399E-3</v>
-      </c>
-      <c r="K211" s="3">
-        <v>9.1027486780162099E-3</v>
-      </c>
+        <v>2.3101933998213699E-3</v>
+      </c>
+      <c r="K211" s="3"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>12</v>
@@ -7832,7 +7818,7 @@
         <v>15</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>35</v>
@@ -7842,15 +7828,13 @@
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K212" s="6">
-        <v>0.45</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="K212" s="6"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>12</v>
@@ -7865,7 +7849,7 @@
         <v>15</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>35</v>
@@ -7877,13 +7861,11 @@
       <c r="J213" s="8">
         <v>0.36986156609954601</v>
       </c>
-      <c r="K213" s="8">
-        <v>0.36986156609954601</v>
-      </c>
+      <c r="K213" s="8"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>12</v>
@@ -7898,7 +7880,7 @@
         <v>15</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>35</v>
@@ -7907,18 +7889,16 @@
         <v>18</v>
       </c>
       <c r="I214" s="2">
-        <v>119.7526</v>
-      </c>
-      <c r="J214" s="2">
-        <v>119.7526</v>
-      </c>
+        <v>10.989000000000001</v>
+      </c>
+      <c r="J214" s="2"/>
       <c r="K214" s="2">
-        <v>2.6808000000000001</v>
+        <v>10.989000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>12</v>
@@ -7933,7 +7913,7 @@
         <v>15</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>35</v>
@@ -7942,18 +7922,16 @@
         <v>19</v>
       </c>
       <c r="I215" s="3">
-        <v>3.6055309166901101E-3</v>
-      </c>
-      <c r="J215" s="3">
-        <v>3.6055309166901101E-3</v>
-      </c>
+        <v>2.09382010624739E-4</v>
+      </c>
+      <c r="J215" s="3"/>
       <c r="K215" s="3">
-        <v>5.1079378840913802E-5</v>
+        <v>2.09382010624739E-4</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>12</v>
@@ -7968,7 +7946,7 @@
         <v>15</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>35</v>
@@ -7977,16 +7955,14 @@
         <v>20</v>
       </c>
       <c r="I216" s="5"/>
-      <c r="J216" s="6">
-        <v>0.3</v>
-      </c>
+      <c r="J216" s="6"/>
       <c r="K216" s="6">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>12</v>
@@ -8001,7 +7977,7 @@
         <v>15</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>35</v>
@@ -8010,16 +7986,14 @@
         <v>21</v>
       </c>
       <c r="I217" s="7"/>
-      <c r="J217" s="8">
-        <v>0.36986156609954601</v>
-      </c>
+      <c r="J217" s="8"/>
       <c r="K217" s="8">
         <v>0.36986156609954601</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>12</v>
@@ -8034,7 +8008,7 @@
         <v>15</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>35</v>
@@ -8043,16 +8017,16 @@
         <v>18</v>
       </c>
       <c r="I218" s="2">
-        <v>76.729799999999997</v>
-      </c>
-      <c r="J218" s="2">
-        <v>76.729799999999997</v>
-      </c>
-      <c r="K218" s="2"/>
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2">
+        <v>3.0750000000000002</v>
+      </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>12</v>
@@ -8067,7 +8041,7 @@
         <v>15</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>35</v>
@@ -8076,16 +8050,16 @@
         <v>19</v>
       </c>
       <c r="I219" s="3">
-        <v>2.3101933998213699E-3</v>
-      </c>
-      <c r="J219" s="3">
-        <v>2.3101933998213699E-3</v>
-      </c>
-      <c r="K219" s="3"/>
+        <v>5.8590379713447398E-5</v>
+      </c>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3">
+        <v>5.8590379713447398E-5</v>
+      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>12</v>
@@ -8100,7 +8074,7 @@
         <v>15</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>35</v>
@@ -8109,14 +8083,14 @@
         <v>20</v>
       </c>
       <c r="I220" s="5"/>
-      <c r="J220" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="K220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>12</v>
@@ -8131,7 +8105,7 @@
         <v>15</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>35</v>
@@ -8140,14 +8114,14 @@
         <v>21</v>
       </c>
       <c r="I221" s="7"/>
-      <c r="J221" s="8">
+      <c r="J221" s="8"/>
+      <c r="K221" s="8">
         <v>0.36986156609954601</v>
       </c>
-      <c r="K221" s="8"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>12</v>
@@ -8162,25 +8136,27 @@
         <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I222" s="2">
-        <v>10.989000000000001</v>
-      </c>
-      <c r="J222" s="2"/>
+        <v>2787.4749000000002</v>
+      </c>
+      <c r="J222" s="2">
+        <v>1934.65175</v>
+      </c>
       <c r="K222" s="2">
-        <v>10.989000000000001</v>
+        <v>2787.4749000000002</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>12</v>
@@ -8195,25 +8171,27 @@
         <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I223" s="3">
-        <v>2.09382010624739E-4</v>
-      </c>
-      <c r="J223" s="3"/>
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="J223" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
       <c r="K223" s="3">
-        <v>2.09382010624739E-4</v>
+        <v>5.3111939132586598E-2</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>12</v>
@@ -8228,23 +8206,25 @@
         <v>15</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I224" s="5"/>
-      <c r="J224" s="6"/>
+      <c r="J224" s="6">
+        <v>0.12</v>
+      </c>
       <c r="K224" s="6">
-        <v>0.9</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>12</v>
@@ -8259,23 +8239,25 @@
         <v>15</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I225" s="7"/>
-      <c r="J225" s="8"/>
+      <c r="J225" s="8">
+        <v>0.20099155835454899</v>
+      </c>
       <c r="K225" s="8">
-        <v>0.36986156609954601</v>
+        <v>0.20099155835454899</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>12</v>
@@ -8290,25 +8272,27 @@
         <v>15</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I226" s="2">
-        <v>3.0750000000000002</v>
-      </c>
-      <c r="J226" s="2"/>
+        <v>658.40260000000001</v>
+      </c>
+      <c r="J226" s="2">
+        <v>16.919799999999999</v>
+      </c>
       <c r="K226" s="2">
-        <v>3.0750000000000002</v>
+        <v>658.40260000000001</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>12</v>
@@ -8323,25 +8307,27 @@
         <v>15</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I227" s="3">
-        <v>5.8590379713447398E-5</v>
-      </c>
-      <c r="J227" s="3"/>
+        <v>1.25450596222182E-2</v>
+      </c>
+      <c r="J227" s="3">
+        <v>5.0942411274755898E-4</v>
+      </c>
       <c r="K227" s="3">
-        <v>5.8590379713447398E-5</v>
+        <v>1.25450596222182E-2</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>12</v>
@@ -8356,23 +8342,25 @@
         <v>15</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I228" s="5"/>
-      <c r="J228" s="6"/>
+      <c r="J228" s="6">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="K228" s="6">
-        <v>0.9</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>12</v>
@@ -8387,23 +8375,25 @@
         <v>15</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I229" s="7"/>
-      <c r="J229" s="8"/>
+      <c r="J229" s="8">
+        <v>0.20099155835454899</v>
+      </c>
       <c r="K229" s="8">
-        <v>0.36986156609954601</v>
+        <v>0.20099155835454899</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>12</v>
@@ -8418,7 +8408,7 @@
         <v>15</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>40</v>
@@ -8427,18 +8417,16 @@
         <v>18</v>
       </c>
       <c r="I230" s="2">
-        <v>2787.4749000000002</v>
-      </c>
-      <c r="J230" s="2">
-        <v>1934.65175</v>
-      </c>
+        <v>145.2114</v>
+      </c>
+      <c r="J230" s="2"/>
       <c r="K230" s="2">
-        <v>2787.4749000000002</v>
+        <v>145.2114</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>12</v>
@@ -8453,7 +8441,7 @@
         <v>15</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>40</v>
@@ -8462,18 +8450,16 @@
         <v>19</v>
       </c>
       <c r="I231" s="3">
-        <v>5.8248812114756798E-2</v>
-      </c>
-      <c r="J231" s="3">
-        <v>5.8248812114756798E-2</v>
-      </c>
+        <v>2.76682636251099E-3</v>
+      </c>
+      <c r="J231" s="3"/>
       <c r="K231" s="3">
-        <v>5.3111939132586598E-2</v>
+        <v>2.76682636251099E-3</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>12</v>
@@ -8488,7 +8474,7 @@
         <v>15</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G232" s="4" t="s">
         <v>40</v>
@@ -8497,16 +8483,14 @@
         <v>20</v>
       </c>
       <c r="I232" s="5"/>
-      <c r="J232" s="6">
-        <v>0.12</v>
-      </c>
+      <c r="J232" s="6"/>
       <c r="K232" s="6">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>12</v>
@@ -8521,7 +8505,7 @@
         <v>15</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>40</v>
@@ -8530,16 +8514,14 @@
         <v>21</v>
       </c>
       <c r="I233" s="7"/>
-      <c r="J233" s="8">
-        <v>0.20099155835454899</v>
-      </c>
+      <c r="J233" s="8"/>
       <c r="K233" s="8">
         <v>0.20099155835454899</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>12</v>
@@ -8554,7 +8536,7 @@
         <v>15</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>40</v>
@@ -8563,18 +8545,16 @@
         <v>18</v>
       </c>
       <c r="I234" s="2">
-        <v>658.40260000000001</v>
-      </c>
-      <c r="J234" s="2">
-        <v>16.919799999999999</v>
-      </c>
+        <v>46.914400000000001</v>
+      </c>
+      <c r="J234" s="2"/>
       <c r="K234" s="2">
-        <v>658.40260000000001</v>
+        <v>46.914400000000001</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>12</v>
@@ -8589,7 +8569,7 @@
         <v>15</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>40</v>
@@ -8598,18 +8578,16 @@
         <v>19</v>
       </c>
       <c r="I235" s="3">
-        <v>1.25450596222182E-2</v>
-      </c>
-      <c r="J235" s="3">
-        <v>5.0942411274755898E-4</v>
-      </c>
+        <v>8.9389675122879904E-4</v>
+      </c>
+      <c r="J235" s="3"/>
       <c r="K235" s="3">
-        <v>1.25450596222182E-2</v>
+        <v>8.9389675122879904E-4</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>12</v>
@@ -8624,7 +8602,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G236" s="4" t="s">
         <v>40</v>
@@ -8633,16 +8611,14 @@
         <v>20</v>
       </c>
       <c r="I236" s="5"/>
-      <c r="J236" s="6">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="J236" s="6"/>
       <c r="K236" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>12</v>
@@ -8657,7 +8633,7 @@
         <v>15</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>40</v>
@@ -8666,16 +8642,14 @@
         <v>21</v>
       </c>
       <c r="I237" s="7"/>
-      <c r="J237" s="8">
-        <v>0.20099155835454899</v>
-      </c>
+      <c r="J237" s="8"/>
       <c r="K237" s="8">
         <v>0.20099155835454899</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>12</v>
@@ -8690,7 +8664,7 @@
         <v>15</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>40</v>
@@ -8699,16 +8673,16 @@
         <v>18</v>
       </c>
       <c r="I238" s="2">
-        <v>145.2114</v>
+        <v>44.490400000000001</v>
       </c>
       <c r="J238" s="2"/>
       <c r="K238" s="2">
-        <v>145.2114</v>
+        <v>44.490400000000001</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>12</v>
@@ -8723,7 +8697,7 @@
         <v>15</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>40</v>
@@ -8732,16 +8706,16 @@
         <v>19</v>
       </c>
       <c r="I239" s="3">
-        <v>2.76682636251099E-3</v>
+        <v>8.4771038361078398E-4</v>
       </c>
       <c r="J239" s="3"/>
       <c r="K239" s="3">
-        <v>2.76682636251099E-3</v>
+        <v>8.4771038361078398E-4</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>12</v>
@@ -8756,7 +8730,7 @@
         <v>15</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G240" s="4" t="s">
         <v>40</v>
@@ -8772,7 +8746,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>12</v>
@@ -8787,7 +8761,7 @@
         <v>15</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G241" s="4" t="s">
         <v>40</v>
@@ -8803,7 +8777,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>12</v>
@@ -8818,7 +8792,7 @@
         <v>15</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>40</v>
@@ -8827,16 +8801,16 @@
         <v>18</v>
       </c>
       <c r="I242" s="2">
-        <v>46.914400000000001</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="J242" s="2"/>
       <c r="K242" s="2">
-        <v>46.914400000000001</v>
+        <v>3.0990000000000002</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>12</v>
@@ -8851,7 +8825,7 @@
         <v>15</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>40</v>
@@ -8860,16 +8834,16 @@
         <v>19</v>
       </c>
       <c r="I243" s="3">
-        <v>8.9389675122879904E-4</v>
+        <v>5.9047670481942602E-5</v>
       </c>
       <c r="J243" s="3"/>
       <c r="K243" s="3">
-        <v>8.9389675122879904E-4</v>
+        <v>5.9047670481942602E-5</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>12</v>
@@ -8884,7 +8858,7 @@
         <v>15</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>40</v>
@@ -8900,7 +8874,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>12</v>
@@ -8915,7 +8889,7 @@
         <v>15</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>40</v>
@@ -8931,7 +8905,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>12</v>
@@ -8946,7 +8920,7 @@
         <v>15</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>40</v>
@@ -8955,16 +8929,16 @@
         <v>18</v>
       </c>
       <c r="I246" s="2">
-        <v>44.490400000000001</v>
+        <v>0.52236000000000005</v>
       </c>
       <c r="J246" s="2"/>
       <c r="K246" s="2">
-        <v>44.490400000000001</v>
+        <v>0.52236000000000005</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>12</v>
@@ -8979,7 +8953,7 @@
         <v>15</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>40</v>
@@ -8988,16 +8962,16 @@
         <v>19</v>
       </c>
       <c r="I247" s="3">
-        <v>8.4771038361078398E-4</v>
+        <v>9.9529335762980199E-6</v>
       </c>
       <c r="J247" s="3"/>
       <c r="K247" s="3">
-        <v>8.4771038361078398E-4</v>
+        <v>9.9529335762980199E-6</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>12</v>
@@ -9012,7 +8986,7 @@
         <v>15</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>40</v>
@@ -9023,12 +8997,12 @@
       <c r="I248" s="5"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6">
-        <v>0.16</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>12</v>
@@ -9043,7 +9017,7 @@
         <v>15</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>40</v>
@@ -9059,7 +9033,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>12</v>
@@ -9074,25 +9048,27 @@
         <v>15</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I250" s="2">
-        <v>3.0990000000000002</v>
-      </c>
-      <c r="J250" s="2"/>
+        <v>3140.1194</v>
+      </c>
+      <c r="J250" s="2">
+        <v>3140.1194</v>
+      </c>
       <c r="K250" s="2">
-        <v>3.0990000000000002</v>
+        <v>1490.106</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>12</v>
@@ -9107,25 +9083,27 @@
         <v>15</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I251" s="3">
-        <v>5.9047670481942602E-5</v>
-      </c>
-      <c r="J251" s="3"/>
+        <v>9.4543229782053997E-2</v>
+      </c>
+      <c r="J251" s="3">
+        <v>9.4543229782053997E-2</v>
+      </c>
       <c r="K251" s="3">
-        <v>5.9047670481942602E-5</v>
+        <v>2.8392154911637799E-2</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>12</v>
@@ -9140,23 +9118,25 @@
         <v>15</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H252" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I252" s="5"/>
-      <c r="J252" s="6"/>
+      <c r="J252" s="6">
+        <v>0.16</v>
+      </c>
       <c r="K252" s="6">
         <v>0.16</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>12</v>
@@ -9171,23 +9151,25 @@
         <v>15</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I253" s="7"/>
-      <c r="J253" s="8"/>
+      <c r="J253" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
       <c r="K253" s="8">
-        <v>0.20099155835454899</v>
+        <v>1.6770082173402701E-2</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>12</v>
@@ -9202,25 +9184,27 @@
         <v>15</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I254" s="2">
-        <v>0.52236000000000005</v>
-      </c>
-      <c r="J254" s="2"/>
+        <v>2787.4749000000002</v>
+      </c>
+      <c r="J254" s="2">
+        <v>1934.65175</v>
+      </c>
       <c r="K254" s="2">
-        <v>0.52236000000000005</v>
+        <v>2787.4749000000002</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>12</v>
@@ -9235,25 +9219,27 @@
         <v>15</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I255" s="3">
-        <v>9.9529335762980199E-6</v>
-      </c>
-      <c r="J255" s="3"/>
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="J255" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
       <c r="K255" s="3">
-        <v>9.9529335762980199E-6</v>
+        <v>5.3111939132586598E-2</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>12</v>
@@ -9268,23 +9254,25 @@
         <v>15</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H256" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I256" s="5"/>
-      <c r="J256" s="6"/>
+      <c r="J256" s="6">
+        <v>0.85</v>
+      </c>
       <c r="K256" s="6">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>12</v>
@@ -9299,23 +9287,25 @@
         <v>15</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H257" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I257" s="7"/>
-      <c r="J257" s="8"/>
+      <c r="J257" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
       <c r="K257" s="8">
-        <v>0.20099155835454899</v>
+        <v>1.6770082173402701E-2</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>12</v>
@@ -9330,27 +9320,27 @@
         <v>15</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I258" s="2">
-        <v>3140.1194</v>
+        <v>971.52470000000005</v>
       </c>
       <c r="J258" s="2">
-        <v>3140.1194</v>
+        <v>775.65200000000004</v>
       </c>
       <c r="K258" s="2">
-        <v>1490.106</v>
+        <v>971.52470000000005</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>12</v>
@@ -9365,27 +9355,27 @@
         <v>15</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I259" s="3">
-        <v>9.4543229782053997E-2</v>
+        <v>2.3353457600023001E-2</v>
       </c>
       <c r="J259" s="3">
-        <v>9.4543229782053997E-2</v>
+        <v>2.3353457600023001E-2</v>
       </c>
       <c r="K259" s="3">
-        <v>2.8392154911637799E-2</v>
+        <v>1.85112198614612E-2</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>12</v>
@@ -9400,25 +9390,25 @@
         <v>15</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I260" s="5"/>
       <c r="J260" s="6">
-        <v>0.16</v>
+        <v>0.85</v>
       </c>
       <c r="K260" s="6">
-        <v>0.16</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>12</v>
@@ -9433,10 +9423,10 @@
         <v>15</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H261" s="4" t="s">
         <v>21</v>
@@ -9451,7 +9441,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>12</v>
@@ -9466,27 +9456,25 @@
         <v>15</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I262" s="2">
-        <v>2787.4749000000002</v>
-      </c>
-      <c r="J262" s="2">
-        <v>1934.65175</v>
-      </c>
+        <v>551.62660000000005</v>
+      </c>
+      <c r="J262" s="2"/>
       <c r="K262" s="2">
-        <v>2787.4749000000002</v>
+        <v>551.62660000000005</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>12</v>
@@ -9501,27 +9489,25 @@
         <v>15</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I263" s="3">
-        <v>5.8248812114756798E-2</v>
-      </c>
-      <c r="J263" s="3">
-        <v>5.8248812114756798E-2</v>
-      </c>
+        <v>1.0510572993183099E-2</v>
+      </c>
+      <c r="J263" s="3"/>
       <c r="K263" s="3">
-        <v>5.3111939132586598E-2</v>
+        <v>1.0510572993183099E-2</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>12</v>
@@ -9536,25 +9522,23 @@
         <v>15</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I264" s="5"/>
-      <c r="J264" s="6">
-        <v>0.85</v>
-      </c>
+      <c r="J264" s="6"/>
       <c r="K264" s="6">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>12</v>
@@ -9569,25 +9553,23 @@
         <v>15</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I265" s="7"/>
-      <c r="J265" s="8">
-        <v>1.6770082173402701E-2</v>
-      </c>
+      <c r="J265" s="8"/>
       <c r="K265" s="8">
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>12</v>
@@ -9602,27 +9584,25 @@
         <v>15</v>
       </c>
       <c r="F266" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I266" s="2">
-        <v>971.52470000000005</v>
-      </c>
-      <c r="J266" s="2">
-        <v>775.65200000000004</v>
-      </c>
+        <v>145.2114</v>
+      </c>
+      <c r="J266" s="2"/>
       <c r="K266" s="2">
-        <v>971.52470000000005</v>
+        <v>145.2114</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>12</v>
@@ -9637,27 +9617,25 @@
         <v>15</v>
       </c>
       <c r="F267" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I267" s="3">
-        <v>2.3353457600023001E-2</v>
-      </c>
-      <c r="J267" s="3">
-        <v>2.3353457600023001E-2</v>
-      </c>
+        <v>2.76682636251099E-3</v>
+      </c>
+      <c r="J267" s="3"/>
       <c r="K267" s="3">
-        <v>1.85112198614612E-2</v>
+        <v>2.76682636251099E-3</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>12</v>
@@ -9672,25 +9650,23 @@
         <v>15</v>
       </c>
       <c r="F268" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G268" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G268" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I268" s="5"/>
-      <c r="J268" s="6">
-        <v>0.85</v>
-      </c>
+      <c r="J268" s="6"/>
       <c r="K268" s="6">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>12</v>
@@ -9705,25 +9681,23 @@
         <v>15</v>
       </c>
       <c r="F269" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G269" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H269" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I269" s="7"/>
-      <c r="J269" s="8">
-        <v>1.6770082173402701E-2</v>
-      </c>
+      <c r="J269" s="8"/>
       <c r="K269" s="8">
         <v>1.6770082173402701E-2</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>12</v>
@@ -9738,25 +9712,25 @@
         <v>15</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I270" s="2">
-        <v>551.62660000000005</v>
+        <v>13.986000000000001</v>
       </c>
       <c r="J270" s="2"/>
       <c r="K270" s="2">
-        <v>551.62660000000005</v>
+        <v>13.986000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>12</v>
@@ -9771,25 +9745,25 @@
         <v>15</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I271" s="3">
-        <v>1.0510572993183099E-2</v>
+        <v>2.6648619534057799E-4</v>
       </c>
       <c r="J271" s="3"/>
       <c r="K271" s="3">
-        <v>1.0510572993183099E-2</v>
+        <v>2.6648619534057799E-4</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>12</v>
@@ -9804,10 +9778,10 @@
         <v>15</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H272" s="4" t="s">
         <v>20</v>
@@ -9815,12 +9789,12 @@
       <c r="I272" s="5"/>
       <c r="J272" s="6"/>
       <c r="K272" s="6">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>12</v>
@@ -9835,10 +9809,10 @@
         <v>15</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H273" s="4" t="s">
         <v>21</v>
@@ -9851,7 +9825,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>12</v>
@@ -9866,25 +9840,27 @@
         <v>15</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I274" s="2">
-        <v>145.2114</v>
-      </c>
-      <c r="J274" s="2"/>
+        <v>5654.9022000000004</v>
+      </c>
+      <c r="J274" s="2">
+        <v>932.3913</v>
+      </c>
       <c r="K274" s="2">
-        <v>145.2114</v>
+        <v>5654.9022000000004</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>12</v>
@@ -9899,25 +9875,27 @@
         <v>15</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I275" s="3">
-        <v>2.76682636251099E-3</v>
-      </c>
-      <c r="J275" s="3"/>
+        <v>9.7265896597783383E-2</v>
+      </c>
+      <c r="J275" s="3">
+        <v>2.7306038906337621E-2</v>
+      </c>
       <c r="K275" s="3">
-        <v>2.76682636251099E-3</v>
+        <v>9.7265896597783383E-2</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>12</v>
@@ -9932,23 +9910,25 @@
         <v>15</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H276" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I276" s="5"/>
-      <c r="J276" s="6"/>
+      <c r="J276" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="K276" s="6">
-        <v>0.32</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>12</v>
@@ -9963,921 +9943,19 @@
         <v>15</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I277" s="7"/>
-      <c r="J277" s="8"/>
+      <c r="J277" s="8">
+        <v>1</v>
+      </c>
       <c r="K277" s="8">
-        <v>1.6770082173402701E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H278" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I278" s="2">
-        <v>13.986000000000001</v>
-      </c>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2">
-        <v>13.986000000000001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H279" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I279" s="3">
-        <v>2.6648619534057799E-4</v>
-      </c>
-      <c r="J279" s="3"/>
-      <c r="K279" s="3">
-        <v>2.6648619534057799E-4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F280" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H280" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I280" s="5"/>
-      <c r="J280" s="6"/>
-      <c r="K280" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F281" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G281" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H281" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I281" s="7"/>
-      <c r="J281" s="8"/>
-      <c r="K281" s="8">
-        <v>1.6770082173402701E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H282" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I282" s="2">
-        <v>214.2448</v>
-      </c>
-      <c r="J282" s="2">
-        <v>184.43680000000001</v>
-      </c>
-      <c r="K282" s="2">
-        <v>214.2448</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I283" s="3">
-        <v>5.4014215239464496E-3</v>
-      </c>
-      <c r="J283" s="3">
-        <v>5.4014215239464496E-3</v>
-      </c>
-      <c r="K283" s="3">
-        <v>3.6850703737038599E-3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F284" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H284" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I284" s="5"/>
-      <c r="J284" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K284" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F285" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G285" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H285" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I285" s="7"/>
-      <c r="J285" s="8">
-        <v>1</v>
-      </c>
-      <c r="K285" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H286" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I286" s="2">
-        <v>747.95450000000005</v>
-      </c>
-      <c r="J286" s="2">
-        <v>747.95450000000005</v>
-      </c>
-      <c r="K286" s="2"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H287" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I287" s="3">
-        <v>2.19046173823912E-2</v>
-      </c>
-      <c r="J287" s="3">
-        <v>2.19046173823912E-2</v>
-      </c>
-      <c r="K287" s="3"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G288" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H288" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I288" s="5"/>
-      <c r="J288" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K288" s="9"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A289" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F289" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G289" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H289" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I289" s="7"/>
-      <c r="J289" s="8">
-        <v>1</v>
-      </c>
-      <c r="K289" s="10"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A290" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H290" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I290" s="2">
-        <v>79.249099999999999</v>
-      </c>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2">
-        <v>79.249099999999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H291" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I291" s="3">
-        <v>1.3631066450746699E-3</v>
-      </c>
-      <c r="J291" s="3"/>
-      <c r="K291" s="3">
-        <v>1.3631066450746699E-3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A292" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D292" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E292" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G292" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H292" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I292" s="5"/>
-      <c r="J292" s="9"/>
-      <c r="K292" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F293" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G293" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H293" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I293" s="7"/>
-      <c r="J293" s="10"/>
-      <c r="K293" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H294" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I294" s="2">
-        <v>5284.6855999999998</v>
-      </c>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2">
-        <v>5284.6855999999998</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H295" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I295" s="3">
-        <v>9.08980677192604E-2</v>
-      </c>
-      <c r="J295" s="3"/>
-      <c r="K295" s="3">
-        <v>9.08980677192604E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A296" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H296" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I296" s="5"/>
-      <c r="J296" s="9"/>
-      <c r="K296" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A297" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E297" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F297" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G297" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H297" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I297" s="7"/>
-      <c r="J297" s="10"/>
-      <c r="K297" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A298" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I298" s="2">
-        <v>6.6877000000000004</v>
-      </c>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2">
-        <v>6.6877000000000004</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H299" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I299" s="3">
-        <v>1.15030307098325E-4</v>
-      </c>
-      <c r="J299" s="3"/>
-      <c r="K299" s="3">
-        <v>1.15030307098325E-4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A300" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F300" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G300" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H300" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I300" s="5"/>
-      <c r="J300" s="9"/>
-      <c r="K300" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A301" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H301" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I301" s="7"/>
-      <c r="J301" s="10"/>
-      <c r="K301" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I302" s="2">
-        <v>70.034999999999997</v>
-      </c>
-      <c r="J302" s="2"/>
-      <c r="K302" s="2">
-        <v>70.034999999999997</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A303" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H303" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I303" s="3">
-        <v>1.2046215526460801E-3</v>
-      </c>
-      <c r="J303" s="3"/>
-      <c r="K303" s="3">
-        <v>1.2046215526460801E-3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A304" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F304" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G304" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H304" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I304" s="5"/>
-      <c r="J304" s="9"/>
-      <c r="K304" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A305" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E305" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H305" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I305" s="7"/>
-      <c r="J305" s="10"/>
-      <c r="K305" s="8">
         <v>1</v>
       </c>
     </row>

--- a/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E3F69-52BC-3946-A53A-B6AB5973D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DC188-DEF3-3947-ADE1-DD08BDEC994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26640" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>MD</t>
-  </si>
-  <si>
-    <t>E.dot_machine</t>
-  </si>
-  <si>
-    <t>E.dot_machine [%]</t>
   </si>
   <si>
     <t>eta.fu</t>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>EnergyType</t>
+  </si>
+  <si>
+    <t>Edot_machine</t>
+  </si>
+  <si>
+    <t>Edot_machine [%]</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:K277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2">
         <v>619.25099999999998</v>
@@ -801,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3">
         <v>0.115638763126426</v>
@@ -836,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6">
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8">
@@ -896,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2">
         <v>187.70779999999999</v>
@@ -931,13 +931,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I7" s="3">
         <v>3.5052503461734399E-2</v>
@@ -966,13 +966,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6">
@@ -999,13 +999,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8">
@@ -1032,13 +1032,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2">
         <v>187.70779999999999</v>
@@ -1067,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3">
         <v>3.5052503461734399E-2</v>
@@ -1102,13 +1102,13 @@
         <v>14</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6">
@@ -1135,13 +1135,13 @@
         <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8">
@@ -1168,13 +1168,13 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2">
         <v>187.01634999999999</v>
@@ -1203,13 +1203,13 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I15" s="3">
         <v>3.4923382277006802E-2</v>
@@ -1238,13 +1238,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6">
@@ -1271,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I18" s="2">
         <v>70.325800000000001</v>
@@ -1339,13 +1339,13 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I19" s="3">
         <v>1.3132620743246899E-2</v>
@@ -1374,13 +1374,13 @@
         <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6">
@@ -1407,13 +1407,13 @@
         <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8">
@@ -1440,13 +1440,13 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I22" s="2">
         <v>63.162799999999997</v>
@@ -1475,13 +1475,13 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I23" s="3">
         <v>1.17950040736338E-2</v>
@@ -1510,13 +1510,13 @@
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6">
@@ -1543,13 +1543,13 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8">
@@ -1576,13 +1576,13 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I26" s="2">
         <v>25.8551</v>
@@ -1611,13 +1611,13 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I27" s="3">
         <v>5.84940392307316E-3</v>
@@ -1646,13 +1646,13 @@
         <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6">
@@ -1679,13 +1679,13 @@
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="8">
@@ -1712,13 +1712,13 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I30" s="2">
         <v>19.075665000000001</v>
@@ -1747,13 +1747,13 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I31" s="3">
         <v>3.5621844880574199E-3</v>
@@ -1782,13 +1782,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6">
@@ -1815,13 +1815,13 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8">
@@ -1848,13 +1848,13 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I34" s="2">
         <v>158.903695</v>
@@ -1883,13 +1883,13 @@
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I35" s="3">
         <v>5.4511426362552899E-2</v>
@@ -1918,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6">
@@ -1951,13 +1951,13 @@
         <v>14</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8">
@@ -1984,13 +1984,13 @@
         <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I38" s="2">
         <v>26.423500000000001</v>
@@ -2019,13 +2019,13 @@
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I39" s="3">
         <v>7.5442585505446904E-3</v>
@@ -2054,13 +2054,13 @@
         <v>14</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6">
@@ -2087,13 +2087,13 @@
         <v>14</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="8">
@@ -2120,13 +2120,13 @@
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I42" s="2">
         <v>15.84695</v>
@@ -2153,13 +2153,13 @@
         <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I43" s="3">
         <v>6.1214049910679798E-3</v>
@@ -2186,13 +2186,13 @@
         <v>14</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6">
@@ -2217,13 +2217,13 @@
         <v>14</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="8">
@@ -2248,13 +2248,13 @@
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I46" s="2">
         <v>685.27279999999996</v>
@@ -2283,13 +2283,13 @@
         <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I47" s="3">
         <v>0.127967656081593</v>
@@ -2318,13 +2318,13 @@
         <v>14</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="6">
@@ -2351,13 +2351,13 @@
         <v>14</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="8">
@@ -2384,13 +2384,13 @@
         <v>14</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I50" s="2">
         <v>216.6498</v>
@@ -2419,13 +2419,13 @@
         <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I51" s="3">
         <v>5.2898461767616402E-2</v>
@@ -2454,13 +2454,13 @@
         <v>14</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="6">
@@ -2487,13 +2487,13 @@
         <v>14</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="8">
@@ -2520,13 +2520,13 @@
         <v>14</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I54" s="2">
         <v>148.09976</v>
@@ -2555,13 +2555,13 @@
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I55" s="3">
         <v>2.7656108856861698E-2</v>
@@ -2590,13 +2590,13 @@
         <v>14</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="6">
@@ -2623,13 +2623,13 @@
         <v>14</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="8">
@@ -2656,13 +2656,13 @@
         <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I58" s="2">
         <v>19.075665000000001</v>
@@ -2691,13 +2691,13 @@
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I59" s="3">
         <v>3.5621844880574199E-3</v>
@@ -2726,13 +2726,13 @@
         <v>14</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="6">
@@ -2759,13 +2759,13 @@
         <v>14</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="8">
@@ -2792,13 +2792,13 @@
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I62" s="2">
         <v>4.5190000000000001</v>
@@ -2825,13 +2825,13 @@
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I63" s="3">
         <v>8.43876829538132E-4</v>
@@ -2858,13 +2858,13 @@
         <v>14</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="6"/>
@@ -2889,13 +2889,13 @@
         <v>14</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
@@ -2920,13 +2920,13 @@
         <v>14</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I66" s="2">
         <v>1.1608000000000001</v>
@@ -2953,13 +2953,13 @@
         <v>14</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I67" s="3">
         <v>4.4839713090731701E-4</v>
@@ -2986,13 +2986,13 @@
         <v>14</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="6">
@@ -3017,13 +3017,13 @@
         <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="8">
@@ -3048,13 +3048,13 @@
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I70" s="2">
         <v>2111.7321999999999</v>
@@ -3083,13 +3083,13 @@
         <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I71" s="3">
         <v>0.56556649190973096</v>
@@ -3118,13 +3118,13 @@
         <v>14</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="6">
@@ -3151,13 +3151,13 @@
         <v>14</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8">
@@ -3184,13 +3184,13 @@
         <v>14</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I74" s="2">
         <v>515.68740000000003</v>
@@ -3219,13 +3219,13 @@
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I75" s="3">
         <v>9.6299324661376903E-2</v>
@@ -3254,13 +3254,13 @@
         <v>14</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="6">
@@ -3287,13 +3287,13 @@
         <v>14</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -3320,13 +3320,13 @@
         <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I78" s="2">
         <v>83.691599999999994</v>
@@ -3355,13 +3355,13 @@
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I79" s="3">
         <v>3.2328629670092E-2</v>
@@ -3390,13 +3390,13 @@
         <v>14</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="6">
@@ -3423,13 +3423,13 @@
         <v>14</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="8">
@@ -3456,13 +3456,13 @@
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I82" s="2">
         <v>36.151699999999998</v>
@@ -3491,13 +3491,13 @@
         <v>14</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I83" s="3">
         <v>6.7509586143867399E-3</v>
@@ -3526,13 +3526,13 @@
         <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6">
@@ -3559,13 +3559,13 @@
         <v>14</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="8">
@@ -3592,13 +3592,13 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H86" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I86" s="2">
         <v>19.075665000000001</v>
@@ -3627,13 +3627,13 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I87" s="3">
         <v>3.5621844880574199E-3</v>
@@ -3662,13 +3662,13 @@
         <v>14</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="6">
@@ -3695,13 +3695,13 @@
         <v>14</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8">
@@ -3728,13 +3728,13 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I90" s="2">
         <v>62.625399999999999</v>
@@ -3763,13 +3763,13 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I91" s="3">
         <v>1.154755349885132E-2</v>
@@ -3798,13 +3798,13 @@
         <v>14</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="6">
@@ -3831,13 +3831,13 @@
         <v>14</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8">
@@ -3849,7 +3849,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>11</v>
@@ -3864,13 +3864,13 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I94" s="2">
         <v>3295.5133999999998</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>11</v>
@@ -3899,13 +3899,13 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I95" s="3">
         <v>9.9221857814081202E-2</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>11</v>
@@ -3934,13 +3934,13 @@
         <v>14</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="6">
@@ -3952,7 +3952,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>11</v>
@@ -3967,13 +3967,13 @@
         <v>14</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="8">
@@ -3985,7 +3985,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>11</v>
@@ -4000,13 +4000,13 @@
         <v>14</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I98" s="2">
         <v>5168.6931100000002</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>11</v>
@@ -4035,13 +4035,13 @@
         <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I99" s="3">
         <v>9.8483151849489303E-2</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>11</v>
@@ -4070,13 +4070,13 @@
         <v>14</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="6">
@@ -4088,7 +4088,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>11</v>
@@ -4103,13 +4103,13 @@
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="8">
@@ -4121,7 +4121,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>11</v>
@@ -4136,13 +4136,13 @@
         <v>14</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I102" s="2">
         <v>4109.3926000000001</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>11</v>
@@ -4171,13 +4171,13 @@
         <v>14</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I103" s="3">
         <v>7.8299470837603594E-2</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>11</v>
@@ -4206,13 +4206,13 @@
         <v>14</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="6">
@@ -4224,7 +4224,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>11</v>
@@ -4239,13 +4239,13 @@
         <v>14</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8">
@@ -4257,7 +4257,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>11</v>
@@ -4278,7 +4278,7 @@
         <v>16</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I106" s="2">
         <v>4029.2543000000001</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>11</v>
@@ -4313,7 +4313,7 @@
         <v>16</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I107" s="3">
         <v>7.6772533137899501E-2</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>11</v>
@@ -4348,7 +4348,7 @@
         <v>16</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="6">
@@ -4360,7 +4360,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>11</v>
@@ -4381,7 +4381,7 @@
         <v>16</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8">
@@ -4393,28 +4393,28 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I110" s="2">
         <v>2496.8186000000001</v>
@@ -4428,28 +4428,28 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I111" s="3">
         <v>4.75738373494628E-2</v>
@@ -4463,28 +4463,28 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="6">
@@ -4496,28 +4496,28 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
@@ -4529,7 +4529,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>11</v>
@@ -4544,13 +4544,13 @@
         <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I114" s="2">
         <v>1673.8107</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>11</v>
@@ -4579,13 +4579,13 @@
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I115" s="3">
         <v>3.1892424221603703E-2</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>11</v>
@@ -4614,13 +4614,13 @@
         <v>14</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="6">
@@ -4632,7 +4632,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>11</v>
@@ -4647,13 +4647,13 @@
         <v>14</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8">
@@ -4665,7 +4665,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>11</v>
@@ -4680,13 +4680,13 @@
         <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I118" s="2">
         <v>1672.8117</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>11</v>
@@ -4715,13 +4715,13 @@
         <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I119" s="3">
         <v>3.1873389493364997E-2</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>11</v>
@@ -4750,13 +4750,13 @@
         <v>14</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="6">
@@ -4768,7 +4768,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>11</v>
@@ -4783,13 +4783,13 @@
         <v>14</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8">
@@ -4801,7 +4801,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>11</v>
@@ -4816,13 +4816,13 @@
         <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I122" s="2">
         <v>739.81083000000001</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>11</v>
@@ -4851,13 +4851,13 @@
         <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I123" s="3">
         <v>1.40961942913238E-2</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>11</v>
@@ -4886,13 +4886,13 @@
         <v>14</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="6">
@@ -4904,7 +4904,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>11</v>
@@ -4919,13 +4919,13 @@
         <v>14</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="8">
@@ -4937,7 +4937,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>11</v>
@@ -4952,13 +4952,13 @@
         <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I126" s="2">
         <v>614.11339999999996</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>11</v>
@@ -4987,13 +4987,13 @@
         <v>14</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I127" s="3">
         <v>1.170118285955E-2</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>11</v>
@@ -5022,13 +5022,13 @@
         <v>14</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="6">
@@ -5040,7 +5040,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>11</v>
@@ -5055,13 +5055,13 @@
         <v>14</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="8">
@@ -5073,7 +5073,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>11</v>
@@ -5088,13 +5088,13 @@
         <v>14</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I130" s="2">
         <v>518.56809999999996</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>11</v>
@@ -5121,13 +5121,13 @@
         <v>14</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I131" s="3">
         <v>9.8806835402539799E-3</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>11</v>
@@ -5154,13 +5154,13 @@
         <v>14</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="6"/>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>11</v>
@@ -5185,13 +5185,13 @@
         <v>14</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="8"/>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>11</v>
@@ -5216,13 +5216,13 @@
         <v>14</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I134" s="2">
         <v>162.08090000000001</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>11</v>
@@ -5251,13 +5251,13 @@
         <v>14</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I135" s="3">
         <v>3.0882541383080702E-3</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>11</v>
@@ -5286,13 +5286,13 @@
         <v>14</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="6">
@@ -5304,7 +5304,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>11</v>
@@ -5319,13 +5319,13 @@
         <v>14</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="8">
@@ -5337,7 +5337,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>11</v>
@@ -5352,13 +5352,13 @@
         <v>14</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I138" s="2">
         <v>102.61539999999999</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>11</v>
@@ -5385,13 +5385,13 @@
         <v>14</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I139" s="3">
         <v>1.9552114635601001E-3</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>11</v>
@@ -5418,13 +5418,13 @@
         <v>14</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="6"/>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>11</v>
@@ -5449,13 +5449,13 @@
         <v>14</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="8"/>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>11</v>
@@ -5480,13 +5480,13 @@
         <v>14</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I142" s="2">
         <v>33.663899999999998</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>11</v>
@@ -5513,13 +5513,13 @@
         <v>14</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I143" s="3">
         <v>6.41424612564398E-4</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>11</v>
@@ -5546,13 +5546,13 @@
         <v>14</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="6"/>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>11</v>
@@ -5577,13 +5577,13 @@
         <v>14</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="8"/>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>11</v>
@@ -5608,13 +5608,13 @@
         <v>14</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I146" s="2">
         <v>6263.6178600000003</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>11</v>
@@ -5643,13 +5643,13 @@
         <v>14</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I147" s="3">
         <v>0.11934560936498601</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>11</v>
@@ -5678,13 +5678,13 @@
         <v>14</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="6">
@@ -5696,7 +5696,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>11</v>
@@ -5711,13 +5711,13 @@
         <v>14</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="8">
@@ -5729,7 +5729,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>11</v>
@@ -5744,13 +5744,13 @@
         <v>14</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I150" s="2">
         <v>149.78620000000001</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>11</v>
@@ -5777,13 +5777,13 @@
         <v>14</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I151" s="3">
         <v>2.8539936044989899E-3</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>11</v>
@@ -5810,13 +5810,13 @@
         <v>14</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="6"/>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>11</v>
@@ -5841,13 +5841,13 @@
         <v>14</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>11</v>
@@ -5872,13 +5872,13 @@
         <v>14</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I154" s="2">
         <v>115.44604</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>11</v>
@@ -5907,13 +5907,13 @@
         <v>14</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I155" s="3">
         <v>2.1996836813053099E-3</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>11</v>
@@ -5942,13 +5942,13 @@
         <v>14</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="6">
@@ -5960,7 +5960,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>11</v>
@@ -5975,13 +5975,13 @@
         <v>14</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="8">
@@ -5993,7 +5993,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>11</v>
@@ -6008,13 +6008,13 @@
         <v>14</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I158" s="2">
         <v>7157.4813000000004</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>11</v>
@@ -6043,13 +6043,13 @@
         <v>14</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I159" s="3">
         <v>0.215498620595973</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>11</v>
@@ -6078,13 +6078,13 @@
         <v>14</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="6">
@@ -6096,7 +6096,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>11</v>
@@ -6111,13 +6111,13 @@
         <v>14</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="8">
@@ -6129,7 +6129,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>11</v>
@@ -6144,13 +6144,13 @@
         <v>14</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I162" s="2">
         <v>1683.98972</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>11</v>
@@ -6179,13 +6179,13 @@
         <v>14</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I163" s="3">
         <v>3.2086373049867299E-2</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>11</v>
@@ -6214,13 +6214,13 @@
         <v>14</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="6">
@@ -6232,7 +6232,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>11</v>
@@ -6247,13 +6247,13 @@
         <v>14</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="8">
@@ -6265,7 +6265,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>11</v>
@@ -6280,13 +6280,13 @@
         <v>14</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I166" s="2">
         <v>1052.3454999999999</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>11</v>
@@ -6313,13 +6313,13 @@
         <v>14</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I167" s="3">
         <v>2.0051161767394399E-2</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>11</v>
@@ -6346,13 +6346,13 @@
         <v>14</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="6"/>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>11</v>
@@ -6377,13 +6377,13 @@
         <v>14</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="8"/>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>11</v>
@@ -6408,13 +6408,13 @@
         <v>14</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I170" s="2">
         <v>579.93690000000004</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>11</v>
@@ -6441,13 +6441,13 @@
         <v>14</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I171" s="3">
         <v>1.74608352777261E-2</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>11</v>
@@ -6474,13 +6474,13 @@
         <v>14</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="6">
@@ -6490,7 +6490,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>11</v>
@@ -6505,13 +6505,13 @@
         <v>14</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="8">
@@ -6521,7 +6521,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>11</v>
@@ -6536,13 +6536,13 @@
         <v>14</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I174" s="2">
         <v>170.63630000000001</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>11</v>
@@ -6571,13 +6571,13 @@
         <v>14</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I175" s="3">
         <v>3.25126686500739E-3</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>11</v>
@@ -6606,13 +6606,13 @@
         <v>14</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="6">
@@ -6624,7 +6624,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>11</v>
@@ -6639,13 +6639,13 @@
         <v>14</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="8">
@@ -6657,7 +6657,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>11</v>
@@ -6672,13 +6672,13 @@
         <v>14</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I178" s="2">
         <v>3459.1066999999998</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>11</v>
@@ -6707,13 +6707,13 @@
         <v>14</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I179" s="3">
         <v>6.5909065047912205E-2</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>11</v>
@@ -6742,13 +6742,13 @@
         <v>14</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="6">
@@ -6760,7 +6760,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>11</v>
@@ -6775,13 +6775,13 @@
         <v>14</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="8">
@@ -6793,7 +6793,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>11</v>
@@ -6808,13 +6808,13 @@
         <v>14</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I182" s="2">
         <v>1508.4313</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>11</v>
@@ -6843,13 +6843,13 @@
         <v>14</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I183" s="3">
         <v>2.87413211833005E-2</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>11</v>
@@ -6878,13 +6878,13 @@
         <v>14</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="6">
@@ -6896,7 +6896,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>11</v>
@@ -6911,13 +6911,13 @@
         <v>14</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="8">
@@ -6929,7 +6929,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>11</v>
@@ -6944,13 +6944,13 @@
         <v>14</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I186" s="2">
         <v>1233.0180499999999</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>11</v>
@@ -6979,13 +6979,13 @@
         <v>14</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I187" s="3">
         <v>2.3493657152206301E-2</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>11</v>
@@ -7014,13 +7014,13 @@
         <v>14</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="6">
@@ -7032,7 +7032,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>11</v>
@@ -7047,13 +7047,13 @@
         <v>14</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="8">
@@ -7065,7 +7065,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>11</v>
@@ -7080,13 +7080,13 @@
         <v>14</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I190" s="2">
         <v>559.68759999999997</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>11</v>
@@ -7115,13 +7115,13 @@
         <v>14</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I191" s="3">
         <v>1.6851166033038899E-2</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>11</v>
@@ -7150,13 +7150,13 @@
         <v>14</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="6">
@@ -7168,7 +7168,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>11</v>
@@ -7183,13 +7183,13 @@
         <v>14</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="8">
@@ -7201,7 +7201,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>11</v>
@@ -7216,13 +7216,13 @@
         <v>14</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I194" s="2">
         <v>523.55020000000002</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>11</v>
@@ -7249,13 +7249,13 @@
         <v>14</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I195" s="3">
         <v>1.5763135268372402E-2</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>11</v>
@@ -7282,13 +7282,13 @@
         <v>14</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="6">
@@ -7298,7 +7298,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>11</v>
@@ -7313,13 +7313,13 @@
         <v>14</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="8">
@@ -7329,7 +7329,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>11</v>
@@ -7344,13 +7344,13 @@
         <v>14</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I198" s="2">
         <v>574.6345</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>11</v>
@@ -7379,13 +7379,13 @@
         <v>14</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I199" s="3">
         <v>1.09489605045356E-2</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>11</v>
@@ -7414,13 +7414,13 @@
         <v>14</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="6">
@@ -7432,7 +7432,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>11</v>
@@ -7447,13 +7447,13 @@
         <v>14</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="8">
@@ -7465,7 +7465,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>11</v>
@@ -7480,13 +7480,13 @@
         <v>14</v>
       </c>
       <c r="F202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H202" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I202" s="2">
         <v>477.73973000000001</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>11</v>
@@ -7515,13 +7515,13 @@
         <v>14</v>
       </c>
       <c r="F203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H203" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I203" s="3">
         <v>9.1027486780162099E-3</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>11</v>
@@ -7550,13 +7550,13 @@
         <v>14</v>
       </c>
       <c r="F204" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G204" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G204" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H204" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="6">
@@ -7568,7 +7568,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>11</v>
@@ -7583,13 +7583,13 @@
         <v>14</v>
       </c>
       <c r="F205" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G205" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G205" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H205" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="8">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>11</v>
@@ -7616,13 +7616,13 @@
         <v>14</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I206" s="2">
         <v>119.7526</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>11</v>
@@ -7651,13 +7651,13 @@
         <v>14</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I207" s="3">
         <v>3.6055309166901101E-3</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>11</v>
@@ -7686,13 +7686,13 @@
         <v>14</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="6">
@@ -7704,7 +7704,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>11</v>
@@ -7719,13 +7719,13 @@
         <v>14</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="8">
@@ -7737,7 +7737,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>11</v>
@@ -7752,13 +7752,13 @@
         <v>14</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I210" s="2">
         <v>76.729799999999997</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>11</v>
@@ -7785,13 +7785,13 @@
         <v>14</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I211" s="3">
         <v>2.3101933998213699E-3</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>11</v>
@@ -7818,13 +7818,13 @@
         <v>14</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="6">
@@ -7834,7 +7834,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>11</v>
@@ -7849,13 +7849,13 @@
         <v>14</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="8">
@@ -7865,7 +7865,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>11</v>
@@ -7880,13 +7880,13 @@
         <v>14</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I214" s="2">
         <v>10.989000000000001</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>11</v>
@@ -7913,13 +7913,13 @@
         <v>14</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I215" s="3">
         <v>2.09382010624739E-4</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>11</v>
@@ -7946,13 +7946,13 @@
         <v>14</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="6"/>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>11</v>
@@ -7977,13 +7977,13 @@
         <v>14</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="8"/>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>11</v>
@@ -8008,13 +8008,13 @@
         <v>14</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I218" s="2">
         <v>3.0750000000000002</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>11</v>
@@ -8041,13 +8041,13 @@
         <v>14</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I219" s="3">
         <v>5.8590379713447398E-5</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>11</v>
@@ -8074,13 +8074,13 @@
         <v>14</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="6"/>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>11</v>
@@ -8105,13 +8105,13 @@
         <v>14</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="8"/>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>11</v>
@@ -8136,13 +8136,13 @@
         <v>14</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I222" s="2">
         <v>2787.4749000000002</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>11</v>
@@ -8171,13 +8171,13 @@
         <v>14</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I223" s="3">
         <v>5.8248812114756798E-2</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>11</v>
@@ -8206,13 +8206,13 @@
         <v>14</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="6">
@@ -8224,7 +8224,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>11</v>
@@ -8239,13 +8239,13 @@
         <v>14</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="8">
@@ -8257,7 +8257,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>11</v>
@@ -8272,13 +8272,13 @@
         <v>14</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I226" s="2">
         <v>658.40260000000001</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>11</v>
@@ -8307,13 +8307,13 @@
         <v>14</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I227" s="3">
         <v>1.25450596222182E-2</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>11</v>
@@ -8342,13 +8342,13 @@
         <v>14</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I228" s="5"/>
       <c r="J228" s="6">
@@ -8360,7 +8360,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>11</v>
@@ -8375,13 +8375,13 @@
         <v>14</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="8">
@@ -8393,7 +8393,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>11</v>
@@ -8408,13 +8408,13 @@
         <v>14</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I230" s="2">
         <v>145.2114</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>11</v>
@@ -8441,13 +8441,13 @@
         <v>14</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I231" s="3">
         <v>2.76682636251099E-3</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>11</v>
@@ -8474,13 +8474,13 @@
         <v>14</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I232" s="5"/>
       <c r="J232" s="6"/>
@@ -8490,7 +8490,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>11</v>
@@ -8505,13 +8505,13 @@
         <v>14</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="8"/>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>11</v>
@@ -8536,13 +8536,13 @@
         <v>14</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I234" s="2">
         <v>46.914400000000001</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>11</v>
@@ -8569,13 +8569,13 @@
         <v>14</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I235" s="3">
         <v>8.9389675122879904E-4</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>11</v>
@@ -8602,13 +8602,13 @@
         <v>14</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I236" s="5"/>
       <c r="J236" s="6"/>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>11</v>
@@ -8633,13 +8633,13 @@
         <v>14</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="8"/>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>11</v>
@@ -8664,13 +8664,13 @@
         <v>14</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I238" s="2">
         <v>44.490400000000001</v>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>11</v>
@@ -8697,13 +8697,13 @@
         <v>14</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I239" s="3">
         <v>8.4771038361078398E-4</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>11</v>
@@ -8730,13 +8730,13 @@
         <v>14</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I240" s="5"/>
       <c r="J240" s="6"/>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>11</v>
@@ -8761,13 +8761,13 @@
         <v>14</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="8"/>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>11</v>
@@ -8792,13 +8792,13 @@
         <v>14</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I242" s="2">
         <v>3.0990000000000002</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>11</v>
@@ -8825,13 +8825,13 @@
         <v>14</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I243" s="3">
         <v>5.9047670481942602E-5</v>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>11</v>
@@ -8858,13 +8858,13 @@
         <v>14</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I244" s="5"/>
       <c r="J244" s="6"/>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>11</v>
@@ -8889,13 +8889,13 @@
         <v>14</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="8"/>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>11</v>
@@ -8920,13 +8920,13 @@
         <v>14</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I246" s="2">
         <v>0.52236000000000005</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>11</v>
@@ -8953,13 +8953,13 @@
         <v>14</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I247" s="3">
         <v>9.9529335762980199E-6</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>11</v>
@@ -8986,13 +8986,13 @@
         <v>14</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I248" s="5"/>
       <c r="J248" s="6"/>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>11</v>
@@ -9017,13 +9017,13 @@
         <v>14</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="8"/>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>11</v>
@@ -9048,13 +9048,13 @@
         <v>14</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I250" s="2">
         <v>3140.1194</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>11</v>
@@ -9083,13 +9083,13 @@
         <v>14</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I251" s="3">
         <v>9.4543229782053997E-2</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>11</v>
@@ -9118,13 +9118,13 @@
         <v>14</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I252" s="5"/>
       <c r="J252" s="6">
@@ -9136,7 +9136,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>11</v>
@@ -9151,13 +9151,13 @@
         <v>14</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="8">
@@ -9169,7 +9169,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>11</v>
@@ -9184,13 +9184,13 @@
         <v>14</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I254" s="2">
         <v>2787.4749000000002</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>11</v>
@@ -9219,13 +9219,13 @@
         <v>14</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I255" s="3">
         <v>5.8248812114756798E-2</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>11</v>
@@ -9254,13 +9254,13 @@
         <v>14</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I256" s="5"/>
       <c r="J256" s="6">
@@ -9272,7 +9272,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>11</v>
@@ -9287,13 +9287,13 @@
         <v>14</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="8">
@@ -9305,7 +9305,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>11</v>
@@ -9320,13 +9320,13 @@
         <v>14</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I258" s="2">
         <v>971.52470000000005</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>11</v>
@@ -9355,13 +9355,13 @@
         <v>14</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I259" s="3">
         <v>2.3353457600023001E-2</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>11</v>
@@ -9390,13 +9390,13 @@
         <v>14</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I260" s="5"/>
       <c r="J260" s="6">
@@ -9408,7 +9408,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>11</v>
@@ -9423,13 +9423,13 @@
         <v>14</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="8">
@@ -9441,7 +9441,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>11</v>
@@ -9456,13 +9456,13 @@
         <v>14</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I262" s="2">
         <v>551.62660000000005</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>11</v>
@@ -9489,13 +9489,13 @@
         <v>14</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I263" s="3">
         <v>1.0510572993183099E-2</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>11</v>
@@ -9522,13 +9522,13 @@
         <v>14</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I264" s="5"/>
       <c r="J264" s="6"/>
@@ -9538,7 +9538,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>11</v>
@@ -9553,13 +9553,13 @@
         <v>14</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="8"/>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>11</v>
@@ -9584,13 +9584,13 @@
         <v>14</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I266" s="2">
         <v>145.2114</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>11</v>
@@ -9617,13 +9617,13 @@
         <v>14</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I267" s="3">
         <v>2.76682636251099E-3</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>11</v>
@@ -9650,13 +9650,13 @@
         <v>14</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I268" s="5"/>
       <c r="J268" s="6"/>
@@ -9666,7 +9666,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>11</v>
@@ -9681,13 +9681,13 @@
         <v>14</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="8"/>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>11</v>
@@ -9712,13 +9712,13 @@
         <v>14</v>
       </c>
       <c r="F270" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G270" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H270" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I270" s="2">
         <v>13.986000000000001</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>11</v>
@@ -9745,13 +9745,13 @@
         <v>14</v>
       </c>
       <c r="F271" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G271" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H271" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I271" s="3">
         <v>2.6648619534057799E-4</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>11</v>
@@ -9778,13 +9778,13 @@
         <v>14</v>
       </c>
       <c r="F272" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G272" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G272" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H272" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I272" s="5"/>
       <c r="J272" s="6"/>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>11</v>
@@ -9809,13 +9809,13 @@
         <v>14</v>
       </c>
       <c r="F273" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G273" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G273" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H273" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="8"/>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>11</v>
@@ -9840,13 +9840,13 @@
         <v>14</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G274" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H274" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H274" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I274" s="2">
         <v>5654.9022000000004</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>11</v>
@@ -9875,13 +9875,13 @@
         <v>14</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I275" s="3">
         <v>9.7265896597783383E-2</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>11</v>
@@ -9910,13 +9910,13 @@
         <v>14</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="6">
@@ -9928,7 +9928,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>11</v>
@@ -9943,13 +9943,13 @@
         <v>14</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="8">

--- a/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D92827-713D-474B-AE26-CF40838A17F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B12E3E-FBE4-D640-A9E6-EA4358534496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26640" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>MD</t>
-  </si>
-  <si>
-    <t>eta.fu</t>
-  </si>
-  <si>
-    <t>phi.u</t>
   </si>
   <si>
     <t>Diesel cars</t>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>MaximumValues</t>
+  </si>
+  <si>
+    <t>etafu</t>
+  </si>
+  <si>
+    <t>phiu</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2">
         <v>619.25099999999998</v>
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="3">
         <v>0.115638763126426</v>
@@ -836,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6">
@@ -869,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8">
@@ -896,13 +896,13 @@
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2">
         <v>187.70779999999999</v>
@@ -931,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="3">
         <v>3.5052503461734399E-2</v>
@@ -966,13 +966,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6">
@@ -999,13 +999,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8">
@@ -1032,13 +1032,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2">
         <v>187.70779999999999</v>
@@ -1067,13 +1067,13 @@
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="3">
         <v>3.5052503461734399E-2</v>
@@ -1102,13 +1102,13 @@
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6">
@@ -1135,13 +1135,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8">
@@ -1168,13 +1168,13 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2">
         <v>187.01634999999999</v>
@@ -1203,13 +1203,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="3">
         <v>3.4923382277006802E-2</v>
@@ -1238,13 +1238,13 @@
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6">
@@ -1271,13 +1271,13 @@
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8">
@@ -1304,13 +1304,13 @@
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I18" s="2">
         <v>70.325800000000001</v>
@@ -1339,13 +1339,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="3">
         <v>1.3132620743246899E-2</v>
@@ -1374,13 +1374,13 @@
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6">
@@ -1407,13 +1407,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8">
@@ -1440,13 +1440,13 @@
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2">
         <v>63.162799999999997</v>
@@ -1475,13 +1475,13 @@
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I23" s="3">
         <v>1.17950040736338E-2</v>
@@ -1510,13 +1510,13 @@
         <v>12</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6">
@@ -1543,13 +1543,13 @@
         <v>12</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8">
@@ -1576,13 +1576,13 @@
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I26" s="2">
         <v>25.8551</v>
@@ -1611,13 +1611,13 @@
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I27" s="3">
         <v>5.84940392307316E-3</v>
@@ -1646,13 +1646,13 @@
         <v>12</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6">
@@ -1679,13 +1679,13 @@
         <v>12</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="8">
@@ -1712,13 +1712,13 @@
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I30" s="2">
         <v>19.075665000000001</v>
@@ -1747,13 +1747,13 @@
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I31" s="3">
         <v>3.5621844880574199E-3</v>
@@ -1782,13 +1782,13 @@
         <v>12</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6">
@@ -1815,13 +1815,13 @@
         <v>12</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8">
@@ -1848,13 +1848,13 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I34" s="2">
         <v>158.903695</v>
@@ -1883,13 +1883,13 @@
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I35" s="3">
         <v>5.4511426362552899E-2</v>
@@ -1918,13 +1918,13 @@
         <v>12</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6">
@@ -1951,13 +1951,13 @@
         <v>12</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8">
@@ -1984,13 +1984,13 @@
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I38" s="2">
         <v>26.423500000000001</v>
@@ -2019,13 +2019,13 @@
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I39" s="3">
         <v>7.5442585505446904E-3</v>
@@ -2054,13 +2054,13 @@
         <v>12</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6">
@@ -2087,13 +2087,13 @@
         <v>12</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="8">
@@ -2120,13 +2120,13 @@
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I42" s="2">
         <v>15.84695</v>
@@ -2153,13 +2153,13 @@
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I43" s="3">
         <v>6.1214049910679798E-3</v>
@@ -2186,13 +2186,13 @@
         <v>12</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6">
@@ -2217,13 +2217,13 @@
         <v>12</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="8">
@@ -2248,13 +2248,13 @@
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I46" s="2">
         <v>685.27279999999996</v>
@@ -2283,13 +2283,13 @@
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I47" s="3">
         <v>0.127967656081593</v>
@@ -2318,13 +2318,13 @@
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="6">
@@ -2351,13 +2351,13 @@
         <v>12</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="8">
@@ -2384,13 +2384,13 @@
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I50" s="2">
         <v>216.6498</v>
@@ -2419,13 +2419,13 @@
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I51" s="3">
         <v>5.2898461767616402E-2</v>
@@ -2454,13 +2454,13 @@
         <v>12</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="6">
@@ -2487,13 +2487,13 @@
         <v>12</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="8">
@@ -2520,13 +2520,13 @@
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I54" s="2">
         <v>148.09976</v>
@@ -2555,13 +2555,13 @@
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I55" s="3">
         <v>2.7656108856861698E-2</v>
@@ -2590,13 +2590,13 @@
         <v>12</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="6">
@@ -2623,13 +2623,13 @@
         <v>12</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="8">
@@ -2656,13 +2656,13 @@
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I58" s="2">
         <v>19.075665000000001</v>
@@ -2691,13 +2691,13 @@
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I59" s="3">
         <v>3.5621844880574199E-3</v>
@@ -2726,13 +2726,13 @@
         <v>12</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="6">
@@ -2759,13 +2759,13 @@
         <v>12</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="8">
@@ -2792,13 +2792,13 @@
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I62" s="2">
         <v>4.5190000000000001</v>
@@ -2825,13 +2825,13 @@
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I63" s="3">
         <v>8.43876829538132E-4</v>
@@ -2858,13 +2858,13 @@
         <v>12</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="6"/>
@@ -2889,13 +2889,13 @@
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
@@ -2920,13 +2920,13 @@
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I66" s="2">
         <v>1.1608000000000001</v>
@@ -2953,13 +2953,13 @@
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I67" s="3">
         <v>4.4839713090731701E-4</v>
@@ -2986,13 +2986,13 @@
         <v>12</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="6">
@@ -3017,13 +3017,13 @@
         <v>12</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="8">
@@ -3048,13 +3048,13 @@
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I70" s="2">
         <v>2111.7321999999999</v>
@@ -3083,13 +3083,13 @@
         <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I71" s="3">
         <v>0.56556649190973096</v>
@@ -3118,13 +3118,13 @@
         <v>12</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="6">
@@ -3151,13 +3151,13 @@
         <v>12</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8">
@@ -3184,13 +3184,13 @@
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I74" s="2">
         <v>515.68740000000003</v>
@@ -3219,13 +3219,13 @@
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I75" s="3">
         <v>9.6299324661376903E-2</v>
@@ -3254,13 +3254,13 @@
         <v>12</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="6">
@@ -3287,13 +3287,13 @@
         <v>12</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -3320,13 +3320,13 @@
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I78" s="2">
         <v>83.691599999999994</v>
@@ -3355,13 +3355,13 @@
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I79" s="3">
         <v>3.2328629670092E-2</v>
@@ -3390,13 +3390,13 @@
         <v>12</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="6">
@@ -3423,13 +3423,13 @@
         <v>12</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="8">
@@ -3456,13 +3456,13 @@
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I82" s="2">
         <v>36.151699999999998</v>
@@ -3491,13 +3491,13 @@
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I83" s="3">
         <v>6.7509586143867399E-3</v>
@@ -3526,13 +3526,13 @@
         <v>12</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6">
@@ -3559,13 +3559,13 @@
         <v>12</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="8">
@@ -3592,13 +3592,13 @@
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H86" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I86" s="2">
         <v>19.075665000000001</v>
@@ -3627,13 +3627,13 @@
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I87" s="3">
         <v>3.5621844880574199E-3</v>
@@ -3662,13 +3662,13 @@
         <v>12</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="6">
@@ -3695,13 +3695,13 @@
         <v>12</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8">
@@ -3728,13 +3728,13 @@
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="I90" s="2">
         <v>62.625399999999999</v>
@@ -3763,13 +3763,13 @@
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I91" s="3">
         <v>1.154755349885132E-2</v>
@@ -3798,13 +3798,13 @@
         <v>12</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="6">
@@ -3831,13 +3831,13 @@
         <v>12</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8">
@@ -3849,7 +3849,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
@@ -3864,13 +3864,13 @@
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I94" s="2">
         <v>3295.5133999999998</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
@@ -3899,13 +3899,13 @@
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I95" s="3">
         <v>9.9221857814081202E-2</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>9</v>
@@ -3934,13 +3934,13 @@
         <v>12</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="6">
@@ -3952,7 +3952,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>9</v>
@@ -3967,13 +3967,13 @@
         <v>12</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="8">
@@ -3985,7 +3985,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>9</v>
@@ -4000,13 +4000,13 @@
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I98" s="2">
         <v>5168.6931100000002</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -4035,13 +4035,13 @@
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I99" s="3">
         <v>9.8483151849489303E-2</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>9</v>
@@ -4070,13 +4070,13 @@
         <v>12</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="6">
@@ -4088,7 +4088,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>9</v>
@@ -4103,13 +4103,13 @@
         <v>12</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="8">
@@ -4121,7 +4121,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>9</v>
@@ -4136,13 +4136,13 @@
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I102" s="2">
         <v>4109.3926000000001</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>9</v>
@@ -4171,13 +4171,13 @@
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I103" s="3">
         <v>7.8299470837603594E-2</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>9</v>
@@ -4206,13 +4206,13 @@
         <v>12</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="6">
@@ -4224,7 +4224,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>9</v>
@@ -4239,13 +4239,13 @@
         <v>12</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8">
@@ -4257,7 +4257,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>9</v>
@@ -4278,7 +4278,7 @@
         <v>14</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I106" s="2">
         <v>4029.2543000000001</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
@@ -4313,7 +4313,7 @@
         <v>14</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I107" s="3">
         <v>7.6772533137899501E-2</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>9</v>
@@ -4348,7 +4348,7 @@
         <v>14</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="6">
@@ -4360,7 +4360,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>9</v>
@@ -4381,7 +4381,7 @@
         <v>14</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8">
@@ -4393,28 +4393,28 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I110" s="2">
         <v>2496.8186000000001</v>
@@ -4428,28 +4428,28 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I111" s="3">
         <v>4.75738373494628E-2</v>
@@ -4463,28 +4463,28 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="6">
@@ -4496,28 +4496,28 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
@@ -4529,7 +4529,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
@@ -4544,13 +4544,13 @@
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I114" s="2">
         <v>1673.8107</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
@@ -4579,13 +4579,13 @@
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I115" s="3">
         <v>3.1892424221603703E-2</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>9</v>
@@ -4614,13 +4614,13 @@
         <v>12</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="6">
@@ -4632,7 +4632,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>9</v>
@@ -4647,13 +4647,13 @@
         <v>12</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8">
@@ -4665,7 +4665,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
@@ -4680,13 +4680,13 @@
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I118" s="2">
         <v>1672.8117</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
@@ -4715,13 +4715,13 @@
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I119" s="3">
         <v>3.1873389493364997E-2</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>9</v>
@@ -4750,13 +4750,13 @@
         <v>12</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="6">
@@ -4768,7 +4768,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>9</v>
@@ -4783,13 +4783,13 @@
         <v>12</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8">
@@ -4801,7 +4801,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
@@ -4816,13 +4816,13 @@
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I122" s="2">
         <v>739.81083000000001</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
@@ -4851,13 +4851,13 @@
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I123" s="3">
         <v>1.40961942913238E-2</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>9</v>
@@ -4886,13 +4886,13 @@
         <v>12</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="6">
@@ -4904,7 +4904,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>9</v>
@@ -4919,13 +4919,13 @@
         <v>12</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="8">
@@ -4937,7 +4937,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
@@ -4952,13 +4952,13 @@
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I126" s="2">
         <v>614.11339999999996</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
@@ -4987,13 +4987,13 @@
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I127" s="3">
         <v>1.170118285955E-2</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>9</v>
@@ -5022,13 +5022,13 @@
         <v>12</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="6">
@@ -5040,7 +5040,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>9</v>
@@ -5055,13 +5055,13 @@
         <v>12</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="8">
@@ -5073,7 +5073,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
@@ -5088,13 +5088,13 @@
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I130" s="2">
         <v>518.56809999999996</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>9</v>
@@ -5121,13 +5121,13 @@
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I131" s="3">
         <v>9.8806835402539799E-3</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>9</v>
@@ -5154,13 +5154,13 @@
         <v>12</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="6"/>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>9</v>
@@ -5185,13 +5185,13 @@
         <v>12</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="8"/>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>9</v>
@@ -5216,13 +5216,13 @@
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I134" s="2">
         <v>162.08090000000001</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>9</v>
@@ -5251,13 +5251,13 @@
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I135" s="3">
         <v>3.0882541383080702E-3</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>9</v>
@@ -5286,13 +5286,13 @@
         <v>12</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="6">
@@ -5304,7 +5304,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>9</v>
@@ -5319,13 +5319,13 @@
         <v>12</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="8">
@@ -5337,7 +5337,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>9</v>
@@ -5352,13 +5352,13 @@
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I138" s="2">
         <v>102.61539999999999</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>9</v>
@@ -5385,13 +5385,13 @@
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I139" s="3">
         <v>1.9552114635601001E-3</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>9</v>
@@ -5418,13 +5418,13 @@
         <v>12</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="6"/>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>9</v>
@@ -5449,13 +5449,13 @@
         <v>12</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="8"/>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>9</v>
@@ -5480,13 +5480,13 @@
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I142" s="2">
         <v>33.663899999999998</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>9</v>
@@ -5513,13 +5513,13 @@
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I143" s="3">
         <v>6.41424612564398E-4</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>9</v>
@@ -5546,13 +5546,13 @@
         <v>12</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="6"/>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>9</v>
@@ -5577,13 +5577,13 @@
         <v>12</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="8"/>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>9</v>
@@ -5608,13 +5608,13 @@
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I146" s="2">
         <v>6263.6178600000003</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>9</v>
@@ -5643,13 +5643,13 @@
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I147" s="3">
         <v>0.11934560936498601</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>9</v>
@@ -5678,13 +5678,13 @@
         <v>12</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="6">
@@ -5696,7 +5696,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>9</v>
@@ -5711,13 +5711,13 @@
         <v>12</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="8">
@@ -5729,7 +5729,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>9</v>
@@ -5744,13 +5744,13 @@
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I150" s="2">
         <v>149.78620000000001</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>9</v>
@@ -5777,13 +5777,13 @@
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I151" s="3">
         <v>2.8539936044989899E-3</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>9</v>
@@ -5810,13 +5810,13 @@
         <v>12</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="6"/>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>9</v>
@@ -5841,13 +5841,13 @@
         <v>12</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>9</v>
@@ -5872,13 +5872,13 @@
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I154" s="2">
         <v>115.44604</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>9</v>
@@ -5907,13 +5907,13 @@
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I155" s="3">
         <v>2.1996836813053099E-3</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>9</v>
@@ -5942,13 +5942,13 @@
         <v>12</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="6">
@@ -5960,7 +5960,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>9</v>
@@ -5975,13 +5975,13 @@
         <v>12</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="8">
@@ -5993,7 +5993,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>9</v>
@@ -6008,13 +6008,13 @@
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I158" s="2">
         <v>7157.4813000000004</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>9</v>
@@ -6043,13 +6043,13 @@
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I159" s="3">
         <v>0.215498620595973</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>9</v>
@@ -6078,13 +6078,13 @@
         <v>12</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="6">
@@ -6096,7 +6096,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>9</v>
@@ -6111,13 +6111,13 @@
         <v>12</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="8">
@@ -6129,7 +6129,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>9</v>
@@ -6144,13 +6144,13 @@
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I162" s="2">
         <v>1683.98972</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
@@ -6179,13 +6179,13 @@
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I163" s="3">
         <v>3.2086373049867299E-2</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>9</v>
@@ -6214,13 +6214,13 @@
         <v>12</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="6">
@@ -6232,7 +6232,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>9</v>
@@ -6247,13 +6247,13 @@
         <v>12</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="8">
@@ -6265,7 +6265,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>9</v>
@@ -6280,13 +6280,13 @@
         <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I166" s="2">
         <v>1052.3454999999999</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>9</v>
@@ -6313,13 +6313,13 @@
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I167" s="3">
         <v>2.0051161767394399E-2</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>9</v>
@@ -6346,13 +6346,13 @@
         <v>12</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="6"/>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>9</v>
@@ -6377,13 +6377,13 @@
         <v>12</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="8"/>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>9</v>
@@ -6408,13 +6408,13 @@
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I170" s="2">
         <v>579.93690000000004</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>9</v>
@@ -6441,13 +6441,13 @@
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I171" s="3">
         <v>1.74608352777261E-2</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>9</v>
@@ -6474,13 +6474,13 @@
         <v>12</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="6">
@@ -6490,7 +6490,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>9</v>
@@ -6505,13 +6505,13 @@
         <v>12</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="8">
@@ -6521,7 +6521,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>9</v>
@@ -6536,13 +6536,13 @@
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I174" s="2">
         <v>170.63630000000001</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>9</v>
@@ -6571,13 +6571,13 @@
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I175" s="3">
         <v>3.25126686500739E-3</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>9</v>
@@ -6606,13 +6606,13 @@
         <v>12</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="6">
@@ -6624,7 +6624,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>9</v>
@@ -6639,13 +6639,13 @@
         <v>12</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="8">
@@ -6657,7 +6657,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
@@ -6672,13 +6672,13 @@
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I178" s="2">
         <v>3459.1066999999998</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>9</v>
@@ -6707,13 +6707,13 @@
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I179" s="3">
         <v>6.5909065047912205E-2</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>9</v>
@@ -6742,13 +6742,13 @@
         <v>12</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="6">
@@ -6760,7 +6760,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>9</v>
@@ -6775,13 +6775,13 @@
         <v>12</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="8">
@@ -6793,7 +6793,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>9</v>
@@ -6808,13 +6808,13 @@
         <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I182" s="2">
         <v>1508.4313</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>9</v>
@@ -6843,13 +6843,13 @@
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I183" s="3">
         <v>2.87413211833005E-2</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>9</v>
@@ -6878,13 +6878,13 @@
         <v>12</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="6">
@@ -6896,7 +6896,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>9</v>
@@ -6911,13 +6911,13 @@
         <v>12</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="8">
@@ -6929,7 +6929,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
@@ -6944,13 +6944,13 @@
         <v>12</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I186" s="2">
         <v>1233.0180499999999</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>9</v>
@@ -6979,13 +6979,13 @@
         <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I187" s="3">
         <v>2.3493657152206301E-2</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>9</v>
@@ -7014,13 +7014,13 @@
         <v>12</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="6">
@@ -7032,7 +7032,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>9</v>
@@ -7047,13 +7047,13 @@
         <v>12</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="8">
@@ -7065,7 +7065,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>9</v>
@@ -7080,13 +7080,13 @@
         <v>12</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I190" s="2">
         <v>559.68759999999997</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>9</v>
@@ -7115,13 +7115,13 @@
         <v>12</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I191" s="3">
         <v>1.6851166033038899E-2</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>9</v>
@@ -7150,13 +7150,13 @@
         <v>12</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="6">
@@ -7168,7 +7168,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>9</v>
@@ -7183,13 +7183,13 @@
         <v>12</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="8">
@@ -7201,7 +7201,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>9</v>
@@ -7216,13 +7216,13 @@
         <v>12</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I194" s="2">
         <v>523.55020000000002</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>9</v>
@@ -7249,13 +7249,13 @@
         <v>12</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I195" s="3">
         <v>1.5763135268372402E-2</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>9</v>
@@ -7282,13 +7282,13 @@
         <v>12</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="6">
@@ -7298,7 +7298,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>9</v>
@@ -7313,13 +7313,13 @@
         <v>12</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="8">
@@ -7329,7 +7329,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>9</v>
@@ -7344,13 +7344,13 @@
         <v>12</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I198" s="2">
         <v>574.6345</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>9</v>
@@ -7379,13 +7379,13 @@
         <v>12</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I199" s="3">
         <v>1.09489605045356E-2</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>9</v>
@@ -7414,13 +7414,13 @@
         <v>12</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="6">
@@ -7432,7 +7432,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>9</v>
@@ -7447,13 +7447,13 @@
         <v>12</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="8">
@@ -7465,7 +7465,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>9</v>
@@ -7480,13 +7480,13 @@
         <v>12</v>
       </c>
       <c r="F202" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H202" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I202" s="2">
         <v>477.73973000000001</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>9</v>
@@ -7515,13 +7515,13 @@
         <v>12</v>
       </c>
       <c r="F203" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H203" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I203" s="3">
         <v>9.1027486780162099E-3</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>9</v>
@@ -7550,13 +7550,13 @@
         <v>12</v>
       </c>
       <c r="F204" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G204" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G204" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H204" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="6">
@@ -7568,7 +7568,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>9</v>
@@ -7583,13 +7583,13 @@
         <v>12</v>
       </c>
       <c r="F205" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G205" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H205" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="8">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>9</v>
@@ -7616,13 +7616,13 @@
         <v>12</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I206" s="2">
         <v>119.7526</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>9</v>
@@ -7651,13 +7651,13 @@
         <v>12</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I207" s="3">
         <v>3.6055309166901101E-3</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>9</v>
@@ -7686,13 +7686,13 @@
         <v>12</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="6">
@@ -7704,7 +7704,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>9</v>
@@ -7719,13 +7719,13 @@
         <v>12</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="8">
@@ -7737,7 +7737,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>9</v>
@@ -7752,13 +7752,13 @@
         <v>12</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I210" s="2">
         <v>76.729799999999997</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>9</v>
@@ -7785,13 +7785,13 @@
         <v>12</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I211" s="3">
         <v>2.3101933998213699E-3</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>9</v>
@@ -7818,13 +7818,13 @@
         <v>12</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="6">
@@ -7834,7 +7834,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>9</v>
@@ -7849,13 +7849,13 @@
         <v>12</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="8">
@@ -7865,7 +7865,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>9</v>
@@ -7880,13 +7880,13 @@
         <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I214" s="2">
         <v>10.989000000000001</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>9</v>
@@ -7913,13 +7913,13 @@
         <v>12</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I215" s="3">
         <v>2.09382010624739E-4</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>9</v>
@@ -7946,13 +7946,13 @@
         <v>12</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="6"/>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>9</v>
@@ -7977,13 +7977,13 @@
         <v>12</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="8"/>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>9</v>
@@ -8008,13 +8008,13 @@
         <v>12</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I218" s="2">
         <v>3.0750000000000002</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>9</v>
@@ -8041,13 +8041,13 @@
         <v>12</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I219" s="3">
         <v>5.8590379713447398E-5</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>9</v>
@@ -8074,13 +8074,13 @@
         <v>12</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="6"/>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>9</v>
@@ -8105,13 +8105,13 @@
         <v>12</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="8"/>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>9</v>
@@ -8136,13 +8136,13 @@
         <v>12</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I222" s="2">
         <v>2787.4749000000002</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>9</v>
@@ -8171,13 +8171,13 @@
         <v>12</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I223" s="3">
         <v>5.8248812114756798E-2</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>9</v>
@@ -8206,13 +8206,13 @@
         <v>12</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="6">
@@ -8224,7 +8224,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>9</v>
@@ -8239,13 +8239,13 @@
         <v>12</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="8">
@@ -8257,7 +8257,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>9</v>
@@ -8272,13 +8272,13 @@
         <v>12</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I226" s="2">
         <v>658.40260000000001</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>9</v>
@@ -8307,13 +8307,13 @@
         <v>12</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I227" s="3">
         <v>1.25450596222182E-2</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>9</v>
@@ -8342,13 +8342,13 @@
         <v>12</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I228" s="5"/>
       <c r="J228" s="6">
@@ -8360,7 +8360,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>9</v>
@@ -8375,13 +8375,13 @@
         <v>12</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="8">
@@ -8393,7 +8393,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>9</v>
@@ -8408,13 +8408,13 @@
         <v>12</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I230" s="2">
         <v>145.2114</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>9</v>
@@ -8441,13 +8441,13 @@
         <v>12</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I231" s="3">
         <v>2.76682636251099E-3</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>9</v>
@@ -8474,13 +8474,13 @@
         <v>12</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I232" s="5"/>
       <c r="J232" s="6"/>
@@ -8490,7 +8490,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>9</v>
@@ -8505,13 +8505,13 @@
         <v>12</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="8"/>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>9</v>
@@ -8536,13 +8536,13 @@
         <v>12</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I234" s="2">
         <v>46.914400000000001</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>9</v>
@@ -8569,13 +8569,13 @@
         <v>12</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I235" s="3">
         <v>8.9389675122879904E-4</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>9</v>
@@ -8602,13 +8602,13 @@
         <v>12</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I236" s="5"/>
       <c r="J236" s="6"/>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>9</v>
@@ -8633,13 +8633,13 @@
         <v>12</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="8"/>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>9</v>
@@ -8664,13 +8664,13 @@
         <v>12</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I238" s="2">
         <v>44.490400000000001</v>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>9</v>
@@ -8697,13 +8697,13 @@
         <v>12</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I239" s="3">
         <v>8.4771038361078398E-4</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>9</v>
@@ -8730,13 +8730,13 @@
         <v>12</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I240" s="5"/>
       <c r="J240" s="6"/>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>9</v>
@@ -8761,13 +8761,13 @@
         <v>12</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="8"/>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>9</v>
@@ -8792,13 +8792,13 @@
         <v>12</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I242" s="2">
         <v>3.0990000000000002</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>9</v>
@@ -8825,13 +8825,13 @@
         <v>12</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I243" s="3">
         <v>5.9047670481942602E-5</v>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>9</v>
@@ -8858,13 +8858,13 @@
         <v>12</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I244" s="5"/>
       <c r="J244" s="6"/>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>9</v>
@@ -8889,13 +8889,13 @@
         <v>12</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="8"/>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>9</v>
@@ -8920,13 +8920,13 @@
         <v>12</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I246" s="2">
         <v>0.52236000000000005</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>9</v>
@@ -8953,13 +8953,13 @@
         <v>12</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I247" s="3">
         <v>9.9529335762980199E-6</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>9</v>
@@ -8986,13 +8986,13 @@
         <v>12</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I248" s="5"/>
       <c r="J248" s="6"/>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>9</v>
@@ -9017,13 +9017,13 @@
         <v>12</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="8"/>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>9</v>
@@ -9048,13 +9048,13 @@
         <v>12</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I250" s="2">
         <v>3140.1194</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>9</v>
@@ -9083,13 +9083,13 @@
         <v>12</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I251" s="3">
         <v>9.4543229782053997E-2</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>9</v>
@@ -9118,13 +9118,13 @@
         <v>12</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I252" s="5"/>
       <c r="J252" s="6">
@@ -9136,7 +9136,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>9</v>
@@ -9151,13 +9151,13 @@
         <v>12</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="8">
@@ -9169,7 +9169,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>9</v>
@@ -9184,13 +9184,13 @@
         <v>12</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I254" s="2">
         <v>2787.4749000000002</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>9</v>
@@ -9219,13 +9219,13 @@
         <v>12</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I255" s="3">
         <v>5.8248812114756798E-2</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>9</v>
@@ -9254,13 +9254,13 @@
         <v>12</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I256" s="5"/>
       <c r="J256" s="6">
@@ -9272,7 +9272,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>9</v>
@@ -9287,13 +9287,13 @@
         <v>12</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="8">
@@ -9305,7 +9305,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>9</v>
@@ -9320,13 +9320,13 @@
         <v>12</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I258" s="2">
         <v>971.52470000000005</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
@@ -9355,13 +9355,13 @@
         <v>12</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I259" s="3">
         <v>2.3353457600023001E-2</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>9</v>
@@ -9390,13 +9390,13 @@
         <v>12</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I260" s="5"/>
       <c r="J260" s="6">
@@ -9408,7 +9408,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>9</v>
@@ -9423,13 +9423,13 @@
         <v>12</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="8">
@@ -9441,7 +9441,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>9</v>
@@ -9456,13 +9456,13 @@
         <v>12</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I262" s="2">
         <v>551.62660000000005</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>9</v>
@@ -9489,13 +9489,13 @@
         <v>12</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I263" s="3">
         <v>1.0510572993183099E-2</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>9</v>
@@ -9522,13 +9522,13 @@
         <v>12</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I264" s="5"/>
       <c r="J264" s="6"/>
@@ -9538,7 +9538,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>9</v>
@@ -9553,13 +9553,13 @@
         <v>12</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="8"/>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>9</v>
@@ -9584,13 +9584,13 @@
         <v>12</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I266" s="2">
         <v>145.2114</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>9</v>
@@ -9617,13 +9617,13 @@
         <v>12</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I267" s="3">
         <v>2.76682636251099E-3</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>9</v>
@@ -9650,13 +9650,13 @@
         <v>12</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I268" s="5"/>
       <c r="J268" s="6"/>
@@ -9666,7 +9666,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>9</v>
@@ -9681,13 +9681,13 @@
         <v>12</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="8"/>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>9</v>
@@ -9712,13 +9712,13 @@
         <v>12</v>
       </c>
       <c r="F270" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G270" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H270" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I270" s="2">
         <v>13.986000000000001</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>9</v>
@@ -9745,13 +9745,13 @@
         <v>12</v>
       </c>
       <c r="F271" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G271" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H271" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I271" s="3">
         <v>2.6648619534057799E-4</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>9</v>
@@ -9778,13 +9778,13 @@
         <v>12</v>
       </c>
       <c r="F272" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G272" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G272" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="H272" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I272" s="5"/>
       <c r="J272" s="6"/>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>9</v>
@@ -9809,13 +9809,13 @@
         <v>12</v>
       </c>
       <c r="F273" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G273" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G273" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="H273" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="8"/>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>9</v>
@@ -9840,13 +9840,13 @@
         <v>12</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G274" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H274" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H274" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="I274" s="2">
         <v>5654.9022000000004</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>9</v>
@@ -9875,13 +9875,13 @@
         <v>12</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I275" s="3">
         <v>9.7265896597783383E-2</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>9</v>
@@ -9910,13 +9910,13 @@
         <v>12</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="6">
@@ -9928,7 +9928,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>9</v>
@@ -9943,13 +9943,13 @@
         <v>12</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="8">
